--- a/right_hand_Data_Variable.xlsx
+++ b/right_hand_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39.43643951416016</v>
+        <v>225.4841613769531</v>
       </c>
       <c r="B2" t="n">
-        <v>52.77300262451172</v>
+        <v>228.0764923095703</v>
       </c>
       <c r="C2" t="n">
-        <v>69.25614166259766</v>
+        <v>234.3710327148438</v>
       </c>
       <c r="D2" t="n">
-        <v>88.48877716064453</v>
+        <v>241.7300720214844</v>
       </c>
       <c r="E2" t="n">
-        <v>106.6652297973633</v>
+        <v>248.8617095947266</v>
       </c>
       <c r="F2" t="n">
-        <v>122.0140380859375</v>
+        <v>259.6064758300781</v>
       </c>
       <c r="G2" t="n">
-        <v>133.7368621826172</v>
+        <v>271.0653076171875</v>
       </c>
       <c r="H2" t="n">
-        <v>150.4314117431641</v>
+        <v>271.0401306152344</v>
       </c>
       <c r="I2" t="n">
-        <v>168.3202819824219</v>
+        <v>277.3369750976562</v>
       </c>
       <c r="J2" t="n">
-        <v>186.3095397949219</v>
+        <v>283.7568969726562</v>
       </c>
       <c r="K2" t="n">
-        <v>208.0922241210938</v>
+        <v>290.5305786132812</v>
       </c>
       <c r="L2" t="n">
-        <v>223.9410705566406</v>
+        <v>302.6263122558594</v>
       </c>
       <c r="M2" t="n">
-        <v>232.9168701171875</v>
+        <v>316.1354064941406</v>
       </c>
       <c r="N2" t="n">
-        <v>241.0462799072266</v>
+        <v>316.72509765625</v>
       </c>
       <c r="O2" t="n">
-        <v>245.7677459716797</v>
+        <v>332.7271118164062</v>
       </c>
       <c r="P2" t="n">
-        <v>250.8659210205078</v>
+        <v>338.9845581054688</v>
       </c>
       <c r="Q2" t="n">
-        <v>252.6227111816406</v>
+        <v>342.841552734375</v>
       </c>
       <c r="R2" t="n">
-        <v>254.1849517822266</v>
+        <v>345.1834411621094</v>
       </c>
       <c r="S2" t="n">
-        <v>255.6801605224609</v>
+        <v>345.1995849609375</v>
       </c>
       <c r="T2" t="n">
-        <v>257.7783508300781</v>
+        <v>345.7732543945312</v>
       </c>
       <c r="U2" t="n">
-        <v>259.5784912109375</v>
+        <v>346.2938842773438</v>
       </c>
       <c r="V2" t="n">
-        <v>261.6238403320312</v>
+        <v>346.9921875</v>
       </c>
       <c r="W2" t="n">
-        <v>263.3551635742188</v>
+        <v>346.3244323730469</v>
       </c>
       <c r="X2" t="n">
-        <v>264.3092346191406</v>
+        <v>340.9644165039062</v>
       </c>
       <c r="Y2" t="n">
-        <v>265.0677490234375</v>
+        <v>331.77099609375</v>
       </c>
       <c r="Z2" t="n">
-        <v>265.1459045410156</v>
+        <v>324.9945678710938</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.1443786621094</v>
+        <v>321.7091674804688</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.8477478027344</v>
+        <v>315.4477233886719</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.3882446289062</v>
+        <v>312.3290710449219</v>
       </c>
       <c r="AD2" t="n">
-        <v>270.1932373046875</v>
+        <v>309.7168579101562</v>
       </c>
       <c r="AE2" t="n">
-        <v>271.014892578125</v>
+        <v>309.0298461914062</v>
       </c>
       <c r="AF2" t="n">
-        <v>271.8729858398438</v>
+        <v>310.4975891113281</v>
       </c>
       <c r="AG2" t="n">
-        <v>271.883056640625</v>
+        <v>311.963134765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>271.7600708007812</v>
+        <v>311.2443237304688</v>
       </c>
       <c r="AI2" t="n">
-        <v>272.8949584960938</v>
+        <v>309.8515014648438</v>
       </c>
       <c r="AJ2" t="n">
-        <v>275.2125549316406</v>
+        <v>307.5608825683594</v>
       </c>
       <c r="AK2" t="n">
-        <v>276.6202087402344</v>
+        <v>306.3314208984375</v>
       </c>
       <c r="AL2" t="n">
-        <v>277.8600158691406</v>
+        <v>302.5499877929688</v>
       </c>
       <c r="AM2" t="n">
-        <v>280.8130493164062</v>
+        <v>298.8730163574219</v>
       </c>
       <c r="AN2" t="n">
-        <v>282.711669921875</v>
+        <v>296.5485229492188</v>
       </c>
       <c r="AO2" t="n">
-        <v>283.7285766601562</v>
+        <v>291.9674987792969</v>
       </c>
       <c r="AP2" t="n">
-        <v>285.5812377929688</v>
+        <v>289.4815979003906</v>
       </c>
       <c r="AQ2" t="n">
-        <v>289.5603332519531</v>
+        <v>286.0761108398438</v>
       </c>
       <c r="AR2" t="n">
-        <v>292.3900756835938</v>
+        <v>285.5419921875</v>
       </c>
       <c r="AS2" t="n">
-        <v>295.3831787109375</v>
+        <v>284.4132385253906</v>
       </c>
       <c r="AT2" t="n">
-        <v>298.5347595214844</v>
+        <v>282.7242736816406</v>
       </c>
       <c r="AU2" t="n">
-        <v>299.2924194335938</v>
+        <v>279.7017517089844</v>
       </c>
       <c r="AV2" t="n">
-        <v>298.9116516113281</v>
+        <v>276.0417785644531</v>
       </c>
       <c r="AW2" t="n">
-        <v>298.1756591796875</v>
+        <v>272.0054321289062</v>
       </c>
       <c r="AX2" t="n">
-        <v>299.2928161621094</v>
+        <v>264.6751403808594</v>
       </c>
       <c r="AY2" t="n">
-        <v>304.89892578125</v>
+        <v>255.4016265869141</v>
       </c>
       <c r="AZ2" t="n">
-        <v>305.4328308105469</v>
+        <v>245.4259948730469</v>
       </c>
       <c r="BA2" t="n">
-        <v>305.7145080566406</v>
+        <v>236.8051452636719</v>
       </c>
       <c r="BB2" t="n">
-        <v>305.6300354003906</v>
+        <v>226.928466796875</v>
       </c>
       <c r="BC2" t="n">
-        <v>305.3169555664062</v>
+        <v>218.6392517089844</v>
       </c>
       <c r="BD2" t="n">
-        <v>304.3335571289062</v>
+        <v>209.5804138183594</v>
       </c>
       <c r="BE2" t="n">
-        <v>303.7625732421875</v>
+        <v>202.0242004394531</v>
       </c>
       <c r="BF2" t="n">
-        <v>302.4516906738281</v>
+        <v>193.1320953369141</v>
       </c>
       <c r="BG2" t="n">
-        <v>300.6603698730469</v>
+        <v>188.8717956542969</v>
       </c>
       <c r="BH2" t="n">
-        <v>301.0287780761719</v>
+        <v>185.8430480957031</v>
       </c>
       <c r="BI2" t="n">
-        <v>300.4841613769531</v>
+        <v>183.0401458740234</v>
       </c>
       <c r="BJ2" t="n">
-        <v>300.5792541503906</v>
+        <v>179.4094848632812</v>
       </c>
       <c r="BK2" t="n">
-        <v>300.9946899414062</v>
+        <v>176.766357421875</v>
       </c>
       <c r="BL2" t="n">
-        <v>301.7606201171875</v>
+        <v>174.5775451660156</v>
       </c>
       <c r="BM2" t="n">
-        <v>301.3453063964844</v>
+        <v>172.1612548828125</v>
       </c>
       <c r="BN2" t="n">
-        <v>300.5608520507812</v>
+        <v>171.2970275878906</v>
       </c>
       <c r="BO2" t="n">
-        <v>298.7442016601562</v>
+        <v>168.6355285644531</v>
       </c>
       <c r="BP2" t="n">
-        <v>297.8791809082031</v>
+        <v>166.712158203125</v>
       </c>
       <c r="BQ2" t="n">
-        <v>297.3559875488281</v>
+        <v>163.1977844238281</v>
       </c>
       <c r="BR2" t="n">
-        <v>297.3919372558594</v>
+        <v>158.7586975097656</v>
       </c>
       <c r="BS2" t="n">
-        <v>298.5544738769531</v>
+        <v>154.286865234375</v>
       </c>
       <c r="BT2" t="n">
-        <v>298.75341796875</v>
+        <v>152.5161743164062</v>
       </c>
       <c r="BU2" t="n">
-        <v>294.8771362304688</v>
+        <v>150.3081512451172</v>
       </c>
       <c r="BV2" t="n">
-        <v>292.6371459960938</v>
+        <v>148.7561798095703</v>
       </c>
       <c r="BW2" t="n">
-        <v>289.4523315429688</v>
+        <v>146.5071105957031</v>
       </c>
       <c r="BX2" t="n">
-        <v>290.0123291015625</v>
+        <v>145.0188598632812</v>
       </c>
       <c r="BY2" t="n">
-        <v>289.8803100585938</v>
+        <v>141.9007720947266</v>
       </c>
       <c r="BZ2" t="n">
-        <v>287.3902893066406</v>
+        <v>140.6461944580078</v>
       </c>
       <c r="CA2" t="n">
-        <v>288.6393737792969</v>
+        <v>140.7201843261719</v>
       </c>
       <c r="CB2" t="n">
-        <v>291.1173095703125</v>
+        <v>141.5141296386719</v>
       </c>
       <c r="CC2" t="n">
-        <v>289.0212707519531</v>
+        <v>143.1892547607422</v>
       </c>
       <c r="CD2" t="n">
-        <v>291.1876831054688</v>
+        <v>145.8052368164062</v>
       </c>
       <c r="CE2" t="n">
-        <v>290.7879333496094</v>
+        <v>156.2415008544922</v>
       </c>
       <c r="CF2" t="n">
-        <v>290.8295593261719</v>
+        <v>160.4493103027344</v>
       </c>
       <c r="CG2" t="n">
-        <v>291.7748718261719</v>
+        <v>167.1908721923828</v>
       </c>
       <c r="CH2" t="n">
-        <v>292.2232666015625</v>
+        <v>173.5399017333984</v>
       </c>
       <c r="CI2" t="n">
-        <v>291.6683959960938</v>
+        <v>180.0403594970703</v>
       </c>
       <c r="CJ2" t="n">
-        <v>290.8021240234375</v>
+        <v>184.4852294921875</v>
       </c>
       <c r="CK2" t="n">
-        <v>290.2210388183594</v>
+        <v>187.9327087402344</v>
       </c>
       <c r="CL2" t="n">
-        <v>290.5822448730469</v>
+        <v>191.4392700195312</v>
       </c>
       <c r="CM2" t="n">
-        <v>290.051513671875</v>
+        <v>195.5154113769531</v>
       </c>
       <c r="CN2" t="n">
-        <v>289.5873107910156</v>
+        <v>199.0975952148438</v>
       </c>
       <c r="CO2" t="n">
-        <v>291.28271484375</v>
+        <v>199.1352844238281</v>
       </c>
       <c r="CP2" t="n">
-        <v>292.379638671875</v>
+        <v>198.4860534667969</v>
       </c>
       <c r="CQ2" t="n">
-        <v>288.9957275390625</v>
+        <v>197.7599945068359</v>
       </c>
       <c r="CR2" t="n">
-        <v>286.3208618164062</v>
+        <v>195.3619689941406</v>
       </c>
       <c r="CS2" t="n">
-        <v>291.8228759765625</v>
+        <v>179.4849853515625</v>
       </c>
       <c r="CT2" t="n">
-        <v>296.0585021972656</v>
+        <v>160.3300170898438</v>
       </c>
       <c r="CU2" t="n">
-        <v>292.0910339355469</v>
+        <v>152.4818725585938</v>
       </c>
       <c r="CV2" t="n">
-        <v>314.5149230957031</v>
+        <v>142.4472198486328</v>
       </c>
       <c r="CW2" t="n">
-        <v>260.6115417480469</v>
+        <v>135.9922637939453</v>
       </c>
       <c r="CX2" t="n">
-        <v>269.3646850585938</v>
+        <v>126.5464935302734</v>
       </c>
       <c r="CY2" t="n">
-        <v>302.1593933105469</v>
+        <v>125.9435348510742</v>
       </c>
       <c r="CZ2" t="n">
-        <v>284.8426208496094</v>
+        <v>121.4725189208984</v>
       </c>
       <c r="DA2" t="n">
-        <v>284.050537109375</v>
+        <v>122.7079162597656</v>
       </c>
       <c r="DB2" t="n">
-        <v>284.5106811523438</v>
+        <v>124.9337310791016</v>
       </c>
       <c r="DC2" t="n">
-        <v>281.5106811523438</v>
+        <v>126.81494140625</v>
       </c>
       <c r="DD2" t="n">
-        <v>272.7022705078125</v>
+        <v>126.5603637695312</v>
       </c>
       <c r="DE2" t="n">
-        <v>269.7886047363281</v>
+        <v>122.5535736083984</v>
       </c>
       <c r="DF2" t="n">
-        <v>280.4074096679688</v>
+        <v>120.1139221191406</v>
       </c>
       <c r="DG2" t="n">
-        <v>281.1439514160156</v>
+        <v>117.3838195800781</v>
       </c>
       <c r="DH2" t="n">
-        <v>282.3204040527344</v>
+        <v>104.2712554931641</v>
       </c>
       <c r="DI2" t="n">
-        <v>281.2875366210938</v>
+        <v>96.36448669433594</v>
       </c>
       <c r="DJ2" t="n">
-        <v>281.375732421875</v>
+        <v>86.45498657226562</v>
       </c>
       <c r="DK2" t="n">
-        <v>273.9769897460938</v>
+        <v>74.15656280517578</v>
       </c>
       <c r="DL2" t="n">
-        <v>276.4661865234375</v>
+        <v>69.01051330566406</v>
       </c>
       <c r="DM2" t="n">
-        <v>277.330322265625</v>
+        <v>69.83124542236328</v>
       </c>
       <c r="DN2" t="n">
-        <v>285.2307739257812</v>
+        <v>68.54267120361328</v>
       </c>
       <c r="DO2" t="n">
-        <v>299.2357788085938</v>
+        <v>68.43256378173828</v>
       </c>
       <c r="DP2" t="n">
-        <v>298.4401550292969</v>
+        <v>74.87686920166016</v>
       </c>
       <c r="DQ2" t="n">
-        <v>302.8238830566406</v>
+        <v>99.32771301269531</v>
       </c>
       <c r="DR2" t="n">
-        <v>300.7603454589844</v>
+        <v>127.3591918945312</v>
       </c>
       <c r="DS2" t="n">
-        <v>300.2586975097656</v>
+        <v>150.0625305175781</v>
       </c>
       <c r="DT2" t="n">
-        <v>299.6102905273438</v>
+        <v>188.7026672363281</v>
       </c>
       <c r="DU2" t="n">
-        <v>306.9021301269531</v>
+        <v>219.820556640625</v>
       </c>
       <c r="DV2" t="n">
-        <v>302.3264770507812</v>
+        <v>227.9895935058594</v>
       </c>
       <c r="DW2" t="n">
-        <v>299.7969055175781</v>
+        <v>236.79736328125</v>
       </c>
       <c r="DX2" t="n">
-        <v>300.6816711425781</v>
+        <v>241.730224609375</v>
       </c>
       <c r="DY2" t="n">
-        <v>301.9840087890625</v>
+        <v>247.1244506835938</v>
       </c>
       <c r="DZ2" t="n">
-        <v>303.9871215820312</v>
+        <v>243.9698791503906</v>
       </c>
       <c r="EA2" t="n">
-        <v>306.7177124023438</v>
+        <v>241.5901489257812</v>
       </c>
       <c r="EB2" t="n">
-        <v>311.6253967285156</v>
+        <v>241.2590789794922</v>
       </c>
       <c r="EC2" t="n">
-        <v>309.2948913574219</v>
+        <v>237.953125</v>
       </c>
       <c r="ED2" t="n">
-        <v>303.0032958984375</v>
+        <v>233.8643188476562</v>
       </c>
       <c r="EE2" t="n">
-        <v>314.7120361328125</v>
+        <v>234.5645751953125</v>
       </c>
       <c r="EF2" t="n">
-        <v>324.9101257324219</v>
+        <v>247.4785614013672</v>
       </c>
       <c r="EG2" t="n">
-        <v>318.2185668945312</v>
+        <v>268.3309631347656</v>
       </c>
       <c r="EH2" t="n">
-        <v>309.9633178710938</v>
+        <v>279.0661315917969</v>
       </c>
       <c r="EI2" t="n">
-        <v>303.8784790039062</v>
+        <v>302.2908325195312</v>
       </c>
       <c r="EJ2" t="n">
-        <v>303.8566589355469</v>
+        <v>310.2106323242188</v>
       </c>
       <c r="EK2" t="n">
-        <v>303.7593688964844</v>
+        <v>337.4774475097656</v>
       </c>
       <c r="EL2" t="n">
-        <v>303.6134338378906</v>
+        <v>343.2918090820312</v>
       </c>
       <c r="EM2" t="n">
-        <v>302.8186645507812</v>
+        <v>350.864013671875</v>
       </c>
       <c r="EN2" t="n">
-        <v>301.2522583007812</v>
+        <v>352.9425354003906</v>
       </c>
       <c r="EO2" t="n">
-        <v>296.3704528808594</v>
+        <v>352.4754638671875</v>
       </c>
       <c r="EP2" t="n">
-        <v>293.5599060058594</v>
+        <v>352.0480651855469</v>
       </c>
       <c r="EQ2" t="n">
-        <v>298.8226318359375</v>
+        <v>351.0796508789062</v>
       </c>
       <c r="ER2" t="n">
-        <v>299.8797912597656</v>
+        <v>352.2911987304688</v>
       </c>
       <c r="ES2" t="n">
-        <v>295.5812072753906</v>
+        <v>360.285888671875</v>
       </c>
       <c r="ET2" t="n">
-        <v>294.5748901367188</v>
+        <v>367.0242309570312</v>
       </c>
       <c r="EU2" t="n">
-        <v>290.2934265136719</v>
+        <v>370.002197265625</v>
       </c>
       <c r="EV2" t="n">
-        <v>296.45361328125</v>
+        <v>370.7947387695312</v>
       </c>
       <c r="EW2" t="n">
-        <v>297.2079467773438</v>
+        <v>382.7362670898438</v>
       </c>
       <c r="EX2" t="n">
-        <v>296.4716186523438</v>
+        <v>394.3302001953125</v>
       </c>
       <c r="EY2" t="n">
-        <v>297.0099792480469</v>
+        <v>397.8556518554688</v>
       </c>
       <c r="EZ2" t="n">
-        <v>296.0903015136719</v>
+        <v>400.9672546386719</v>
       </c>
       <c r="FA2" t="n">
-        <v>302.7317504882812</v>
+        <v>405.2879333496094</v>
       </c>
       <c r="FB2" t="n">
-        <v>303.6673278808594</v>
+        <v>408.318115234375</v>
       </c>
       <c r="FC2" t="n">
-        <v>300.4064025878906</v>
+        <v>409.0901184082031</v>
       </c>
       <c r="FD2" t="n">
-        <v>301.4118347167969</v>
+        <v>404.5099487304688</v>
       </c>
       <c r="FE2" t="n">
-        <v>304.6708374023438</v>
+        <v>403.3712768554688</v>
       </c>
       <c r="FF2" t="n">
-        <v>296.5890197753906</v>
+        <v>400.3317565917969</v>
       </c>
       <c r="FG2" t="n">
-        <v>288.1370849609375</v>
+        <v>394.7457885742188</v>
       </c>
       <c r="FH2" t="n">
-        <v>293.6732788085938</v>
+        <v>390.1710205078125</v>
       </c>
       <c r="FI2" t="n">
-        <v>296.8521118164062</v>
+        <v>385.3936157226562</v>
       </c>
       <c r="FJ2" t="n">
-        <v>308.366455078125</v>
+        <v>380.2974853515625</v>
       </c>
       <c r="FK2" t="n">
-        <v>313.3860473632812</v>
+        <v>371.9688415527344</v>
       </c>
       <c r="FL2" t="n">
-        <v>317.0331726074219</v>
+        <v>377.0547485351562</v>
       </c>
       <c r="FM2" t="n">
-        <v>306.2957763671875</v>
+        <v>380.518798828125</v>
       </c>
       <c r="FN2" t="n">
-        <v>284.4621276855469</v>
+        <v>383.5704345703125</v>
       </c>
       <c r="FO2" t="n">
-        <v>297.3561401367188</v>
+        <v>384.0332336425781</v>
       </c>
       <c r="FP2" t="n">
-        <v>291.3330688476562</v>
+        <v>384.872802734375</v>
       </c>
       <c r="FQ2" t="n">
-        <v>288.4403686523438</v>
+        <v>384.3624572753906</v>
       </c>
       <c r="FR2" t="n">
-        <v>284.3346557617188</v>
+        <v>376.2066650390625</v>
       </c>
       <c r="FS2" t="n">
-        <v>283.0220642089844</v>
+        <v>376.783447265625</v>
       </c>
       <c r="FT2" t="n">
-        <v>274.4156799316406</v>
+        <v>375.1566162109375</v>
       </c>
       <c r="FU2" t="n">
-        <v>275.1688842773438</v>
+        <v>372.976806640625</v>
       </c>
       <c r="FV2" t="n">
-        <v>274.9932556152344</v>
+        <v>367.0015869140625</v>
       </c>
       <c r="FW2" t="n">
-        <v>276.7838439941406</v>
+        <v>361.32080078125</v>
       </c>
       <c r="FX2" t="n">
-        <v>274.5396423339844</v>
+        <v>360.5594482421875</v>
       </c>
       <c r="FY2" t="n">
-        <v>273.6519165039062</v>
+        <v>358.5830383300781</v>
       </c>
       <c r="FZ2" t="n">
-        <v>273.7679443359375</v>
+        <v>353.5153503417969</v>
       </c>
       <c r="GA2" t="n">
-        <v>273.9229125976562</v>
+        <v>351.3406372070312</v>
       </c>
       <c r="GB2" t="n">
-        <v>274.4916076660156</v>
+        <v>351.277099609375</v>
       </c>
       <c r="GC2" t="n">
-        <v>274.9016418457031</v>
+        <v>349.398681640625</v>
       </c>
       <c r="GD2" t="n">
-        <v>274.8132019042969</v>
+        <v>354.5047607421875</v>
       </c>
       <c r="GE2" t="n">
-        <v>280.8358154296875</v>
+        <v>347.0774841308594</v>
       </c>
       <c r="GF2" t="n">
-        <v>279.0018920898438</v>
+        <v>346.3040771484375</v>
       </c>
       <c r="GG2" t="n">
-        <v>279.833740234375</v>
+        <v>342.9772338867188</v>
       </c>
       <c r="GH2" t="n">
-        <v>279.566650390625</v>
+        <v>348.9842224121094</v>
       </c>
       <c r="GI2" t="n">
-        <v>281.9048156738281</v>
+        <v>348.9003295898438</v>
       </c>
       <c r="GJ2" t="n">
-        <v>265.0217895507812</v>
+        <v>341.9068908691406</v>
       </c>
       <c r="GK2" t="n">
-        <v>272.0414428710938</v>
+        <v>340.9024658203125</v>
       </c>
       <c r="GL2" t="n">
-        <v>270.4762268066406</v>
+        <v>337.2155151367188</v>
       </c>
       <c r="GM2" t="n">
-        <v>270.3180236816406</v>
+        <v>333.464599609375</v>
       </c>
       <c r="GN2" t="n">
-        <v>270.2898559570312</v>
+        <v>332.7073974609375</v>
       </c>
       <c r="GO2" t="n">
-        <v>259.8422241210938</v>
+        <v>328.1595153808594</v>
       </c>
       <c r="GP2" t="n">
-        <v>252.2793884277344</v>
+        <v>322.62255859375</v>
       </c>
       <c r="GQ2" t="n">
-        <v>251.2354888916016</v>
+        <v>320.4641418457031</v>
       </c>
       <c r="GR2" t="n">
-        <v>194.1759490966797</v>
+        <v>317.8952331542969</v>
       </c>
       <c r="GS2" t="n">
-        <v>196.8659362792969</v>
+        <v>318.5377197265625</v>
       </c>
       <c r="GT2" t="n">
-        <v>197.7304382324219</v>
+        <v>319.3565063476562</v>
       </c>
       <c r="GU2" t="n">
-        <v>192.7856140136719</v>
+        <v>315.2667236328125</v>
       </c>
       <c r="GV2" t="n">
-        <v>199.6433715820312</v>
+        <v>313.6464538574219</v>
       </c>
       <c r="GW2" t="n">
-        <v>188.8638610839844</v>
+        <v>309.0341186523438</v>
       </c>
       <c r="GX2" t="n">
-        <v>157.6302185058594</v>
+        <v>312.7627258300781</v>
       </c>
       <c r="GY2" t="n">
-        <v>168.830322265625</v>
+        <v>309.589111328125</v>
       </c>
       <c r="GZ2" t="n">
-        <v>234.6978454589844</v>
+        <v>309.1410827636719</v>
       </c>
       <c r="HA2" t="n">
-        <v>220.4859619140625</v>
+        <v>309.6117553710938</v>
       </c>
       <c r="HB2" t="n">
-        <v>257.7537536621094</v>
+        <v>312.8341369628906</v>
       </c>
       <c r="HC2" t="n">
-        <v>273.1590270996094</v>
+        <v>312.73974609375</v>
       </c>
       <c r="HD2" t="n">
-        <v>284.45654296875</v>
+        <v>308.125244140625</v>
       </c>
       <c r="HE2" t="n">
-        <v>287.0449829101562</v>
+        <v>311.4552917480469</v>
       </c>
       <c r="HF2" t="n">
-        <v>287.7699279785156</v>
+        <v>312.2132873535156</v>
       </c>
       <c r="HG2" t="n">
-        <v>287.2099609375</v>
+        <v>307.9112243652344</v>
       </c>
       <c r="HH2" t="n">
-        <v>278.290283203125</v>
+        <v>306.3962097167969</v>
       </c>
       <c r="HI2" t="n">
-        <v>270.7513427734375</v>
+        <v>307.8039855957031</v>
       </c>
       <c r="HJ2" t="n">
-        <v>261.7725524902344</v>
+        <v>313.956298828125</v>
       </c>
       <c r="HK2" t="n">
-        <v>244.1194458007812</v>
+        <v>310.8190002441406</v>
       </c>
       <c r="HL2" t="n">
-        <v>227.3255615234375</v>
+        <v>321.1324768066406</v>
       </c>
       <c r="HM2" t="n">
-        <v>216.9939575195312</v>
+        <v>319.9577331542969</v>
       </c>
       <c r="HN2" t="n">
-        <v>197.1107177734375</v>
+        <v>317.0829162597656</v>
       </c>
       <c r="HO2" t="n">
-        <v>186.1674194335938</v>
+        <v>328.3516235351562</v>
       </c>
       <c r="HP2" t="n">
-        <v>171.3065185546875</v>
+        <v>342.2448120117188</v>
       </c>
       <c r="HQ2" t="n">
-        <v>157.1552276611328</v>
+        <v>347.4609069824219</v>
       </c>
       <c r="HR2" t="n">
-        <v>126.3428192138672</v>
+        <v>368.1234436035156</v>
       </c>
       <c r="HS2" t="n">
-        <v>132.2970733642578</v>
+        <v>367.4658813476562</v>
       </c>
       <c r="HT2" t="n">
-        <v>99.93159484863281</v>
+        <v>371.099853515625</v>
       </c>
       <c r="HU2" t="n">
-        <v>47.47808456420898</v>
+        <v>375.4985046386719</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>379.3902587890625</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>378.9116821289062</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>378.7938232421875</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>378.7858276367188</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>382.4375610351562</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>385.7845458984375</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>385.9488525390625</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>386.5015258789062</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>386.0995178222656</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>385.3218078613281</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>383.810302734375</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>377.1939086914062</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>371.8626708984375</v>
+      </c>
+      <c r="II2" t="n">
+        <v>365.7592468261719</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>356.8658447265625</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>340.459228515625</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>335.5828857421875</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>328.2487487792969</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>315.0196228027344</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>317.6484985351562</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>313.3197326660156</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>314.8073425292969</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>312.3621520996094</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>315.0252685546875</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>314.7583923339844</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>314.5630798339844</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>315.2225646972656</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>312.6128234863281</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>312.458740234375</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>312.7023315429688</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>310.1922912597656</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>315.5302124023438</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>313.9447326660156</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>315.1218872070312</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>315.3785705566406</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>321.0260314941406</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>317.310302734375</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>316.11376953125</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>315.9629211425781</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>328.49951171875</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>335.8938903808594</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>335.6854858398438</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>345.3779296875</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>359.501708984375</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>359.760986328125</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>353.0115356445312</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>363.4488525390625</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>358.5526123046875</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>351.3385314941406</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>361.0816040039062</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>371.6941833496094</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>370.3134765625</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>371.3465881347656</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>371.5928955078125</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>371.222900390625</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>371.2394409179688</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>371.1141357421875</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>370.5932006835938</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>356.5484008789062</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>342.4843139648438</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>329.7085266113281</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>323.078125</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>322.0641784667969</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>321.09228515625</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>323.0158996582031</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>323.1576843261719</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>323.1608276367188</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>322.4897766113281</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>312.340087890625</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>307.2004089355469</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>298.9431457519531</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>290.6506652832031</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>306.1494140625</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>296.412353515625</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>311.0765991210938</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>319.743408203125</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>318.9119262695312</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>319.14892578125</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>311.8366394042969</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>325.8815307617188</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>309.61279296875</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>312.6288757324219</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>318.8513488769531</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>340.2142333984375</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>344.3329467773438</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>350.4630126953125</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>367.32568359375</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>372.5848388671875</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>372.63037109375</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>370.8280029296875</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>368.7992858886719</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>365.1184692382812</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>366.3651123046875</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>372.1629333496094</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>375.6250610351562</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>377.9110107421875</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>380.3668823242188</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>382.01220703125</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>383.6842041015625</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>368.6649169921875</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>363.5469970703125</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>362.6220703125</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>367.3992309570312</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>359.2709350585938</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>368.68603515625</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>380.8585205078125</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>362.3452453613281</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>393.6398620605469</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>383.016845703125</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>357.09375</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>335.7324829101562</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>317.5265808105469</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>294.6690979003906</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>219.6283874511719</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>222.2247619628906</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>245.8832550048828</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>262.0679016113281</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>257.5353698730469</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>238.0398406982422</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>242.9749450683594</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>246.0720520019531</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>237.97802734375</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>261.643798828125</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>259.6936340332031</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>252.08203125</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>254.4311370849609</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>207.6591186523438</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>201.1396026611328</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>223.3440551757812</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>296.6727905273438</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>280.2823791503906</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>229.6265869140625</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>212.2033996582031</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>176.4315948486328</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>136.0536041259766</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>110.6070098876953</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>112.3484878540039</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>140.025634765625</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>165.7002563476562</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>165.7725830078125</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>164.6250610351562</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>184.59375</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>214.5885925292969</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>217.8953247070312</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>166.6284484863281</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>158.2879486083984</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>165.1831359863281</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>140.1188201904297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>381.4335021972656</v>
+        <v>340.0116882324219</v>
       </c>
       <c r="B3" t="n">
-        <v>370.8319396972656</v>
+        <v>354.6170349121094</v>
       </c>
       <c r="C3" t="n">
-        <v>352.2366943359375</v>
+        <v>363.9200439453125</v>
       </c>
       <c r="D3" t="n">
-        <v>340.7673034667969</v>
+        <v>371.67333984375</v>
       </c>
       <c r="E3" t="n">
-        <v>334.3777160644531</v>
+        <v>385.153564453125</v>
       </c>
       <c r="F3" t="n">
-        <v>336.659912109375</v>
+        <v>396.0735473632812</v>
       </c>
       <c r="G3" t="n">
-        <v>343.8898010253906</v>
+        <v>405.1763610839844</v>
       </c>
       <c r="H3" t="n">
-        <v>345.45361328125</v>
+        <v>413.6983337402344</v>
       </c>
       <c r="I3" t="n">
-        <v>354.4232177734375</v>
+        <v>420.0265197753906</v>
       </c>
       <c r="J3" t="n">
-        <v>364.6476745605469</v>
+        <v>423.4559936523438</v>
       </c>
       <c r="K3" t="n">
-        <v>373.2539672851562</v>
+        <v>420.1991271972656</v>
       </c>
       <c r="L3" t="n">
-        <v>385.9983520507812</v>
+        <v>411.5860900878906</v>
       </c>
       <c r="M3" t="n">
-        <v>397.4566345214844</v>
+        <v>385.3246154785156</v>
       </c>
       <c r="N3" t="n">
-        <v>391.961181640625</v>
+        <v>376.2809448242188</v>
       </c>
       <c r="O3" t="n">
-        <v>360.0800170898438</v>
+        <v>361.2106018066406</v>
       </c>
       <c r="P3" t="n">
-        <v>353.7691650390625</v>
+        <v>354.1294860839844</v>
       </c>
       <c r="Q3" t="n">
-        <v>345.880859375</v>
+        <v>350.2711486816406</v>
       </c>
       <c r="R3" t="n">
-        <v>338.8794860839844</v>
+        <v>345.2439575195312</v>
       </c>
       <c r="S3" t="n">
-        <v>335.6026000976562</v>
+        <v>344.2698669433594</v>
       </c>
       <c r="T3" t="n">
-        <v>332.7271728515625</v>
+        <v>344.3267211914062</v>
       </c>
       <c r="U3" t="n">
-        <v>328.6810302734375</v>
+        <v>340.7849731445312</v>
       </c>
       <c r="V3" t="n">
-        <v>326.9526672363281</v>
+        <v>342.3168029785156</v>
       </c>
       <c r="W3" t="n">
-        <v>326.1119995117188</v>
+        <v>345.1407165527344</v>
       </c>
       <c r="X3" t="n">
-        <v>323.4294128417969</v>
+        <v>348.1722106933594</v>
       </c>
       <c r="Y3" t="n">
-        <v>323.4779052734375</v>
+        <v>358.7094116210938</v>
       </c>
       <c r="Z3" t="n">
-        <v>323.2682495117188</v>
+        <v>366.4597473144531</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.1599731445312</v>
+        <v>370.5927124023438</v>
       </c>
       <c r="AB3" t="n">
-        <v>321.1322021484375</v>
+        <v>377.3327026367188</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.8631591796875</v>
+        <v>382.3304443359375</v>
       </c>
       <c r="AD3" t="n">
-        <v>324.2571411132812</v>
+        <v>385.9901428222656</v>
       </c>
       <c r="AE3" t="n">
-        <v>320.315185546875</v>
+        <v>387.5996398925781</v>
       </c>
       <c r="AF3" t="n">
-        <v>316.1619567871094</v>
+        <v>385.8492736816406</v>
       </c>
       <c r="AG3" t="n">
-        <v>316.7119140625</v>
+        <v>385.1298217773438</v>
       </c>
       <c r="AH3" t="n">
-        <v>314.3592224121094</v>
+        <v>384.6333618164062</v>
       </c>
       <c r="AI3" t="n">
-        <v>312.3396911621094</v>
+        <v>380.3249816894531</v>
       </c>
       <c r="AJ3" t="n">
-        <v>313.8863525390625</v>
+        <v>376.4156494140625</v>
       </c>
       <c r="AK3" t="n">
-        <v>314.2878112792969</v>
+        <v>375.523193359375</v>
       </c>
       <c r="AL3" t="n">
-        <v>314.2820129394531</v>
+        <v>376.2753295898438</v>
       </c>
       <c r="AM3" t="n">
-        <v>310.5168151855469</v>
+        <v>375.6940612792969</v>
       </c>
       <c r="AN3" t="n">
-        <v>308.0530700683594</v>
+        <v>377.9235229492188</v>
       </c>
       <c r="AO3" t="n">
-        <v>307.5650939941406</v>
+        <v>379.5215759277344</v>
       </c>
       <c r="AP3" t="n">
-        <v>306.0235290527344</v>
+        <v>381.9014282226562</v>
       </c>
       <c r="AQ3" t="n">
-        <v>305.2926025390625</v>
+        <v>382.7341918945312</v>
       </c>
       <c r="AR3" t="n">
-        <v>305.9553833007812</v>
+        <v>382.9593200683594</v>
       </c>
       <c r="AS3" t="n">
-        <v>306.295654296875</v>
+        <v>383.4497680664062</v>
       </c>
       <c r="AT3" t="n">
-        <v>304.2093811035156</v>
+        <v>384.1150512695312</v>
       </c>
       <c r="AU3" t="n">
-        <v>301.6236877441406</v>
+        <v>385.0129699707031</v>
       </c>
       <c r="AV3" t="n">
-        <v>300.7667846679688</v>
+        <v>384.5847778320312</v>
       </c>
       <c r="AW3" t="n">
-        <v>300.7728576660156</v>
+        <v>383.2781982421875</v>
       </c>
       <c r="AX3" t="n">
-        <v>307.7214660644531</v>
+        <v>380.4136352539062</v>
       </c>
       <c r="AY3" t="n">
-        <v>304.5500793457031</v>
+        <v>376.9747009277344</v>
       </c>
       <c r="AZ3" t="n">
-        <v>301.8391418457031</v>
+        <v>372.6984252929688</v>
       </c>
       <c r="BA3" t="n">
-        <v>301.7817993164062</v>
+        <v>368.8194885253906</v>
       </c>
       <c r="BB3" t="n">
-        <v>302.2108764648438</v>
+        <v>364.1549987792969</v>
       </c>
       <c r="BC3" t="n">
-        <v>303.0411682128906</v>
+        <v>359.0003356933594</v>
       </c>
       <c r="BD3" t="n">
-        <v>306.1636962890625</v>
+        <v>353.4092102050781</v>
       </c>
       <c r="BE3" t="n">
-        <v>306.2086791992188</v>
+        <v>348.9478759765625</v>
       </c>
       <c r="BF3" t="n">
-        <v>305.0126037597656</v>
+        <v>343.075439453125</v>
       </c>
       <c r="BG3" t="n">
-        <v>302.1689147949219</v>
+        <v>338.9530944824219</v>
       </c>
       <c r="BH3" t="n">
-        <v>303.2578735351562</v>
+        <v>336.3543090820312</v>
       </c>
       <c r="BI3" t="n">
-        <v>303.2954406738281</v>
+        <v>334.5413513183594</v>
       </c>
       <c r="BJ3" t="n">
-        <v>298.2465515136719</v>
+        <v>334.1516418457031</v>
       </c>
       <c r="BK3" t="n">
-        <v>295.8642883300781</v>
+        <v>334.8403625488281</v>
       </c>
       <c r="BL3" t="n">
-        <v>296.9109802246094</v>
+        <v>337.2766418457031</v>
       </c>
       <c r="BM3" t="n">
-        <v>296.2501525878906</v>
+        <v>340.5481262207031</v>
       </c>
       <c r="BN3" t="n">
-        <v>294.9613647460938</v>
+        <v>342.7057189941406</v>
       </c>
       <c r="BO3" t="n">
-        <v>294.1884155273438</v>
+        <v>346.7747192382812</v>
       </c>
       <c r="BP3" t="n">
-        <v>293.7972717285156</v>
+        <v>349.0185546875</v>
       </c>
       <c r="BQ3" t="n">
-        <v>292.3394775390625</v>
+        <v>350.1448974609375</v>
       </c>
       <c r="BR3" t="n">
-        <v>289.3804931640625</v>
+        <v>352.1417541503906</v>
       </c>
       <c r="BS3" t="n">
-        <v>292.0382080078125</v>
+        <v>353.1997375488281</v>
       </c>
       <c r="BT3" t="n">
-        <v>295.5801391601562</v>
+        <v>354.267578125</v>
       </c>
       <c r="BU3" t="n">
-        <v>293.4976196289062</v>
+        <v>355.3074645996094</v>
       </c>
       <c r="BV3" t="n">
-        <v>291.9974670410156</v>
+        <v>355.520751953125</v>
       </c>
       <c r="BW3" t="n">
-        <v>292.5142822265625</v>
+        <v>355.5603332519531</v>
       </c>
       <c r="BX3" t="n">
-        <v>293.864013671875</v>
+        <v>355.6852416992188</v>
       </c>
       <c r="BY3" t="n">
-        <v>292.055908203125</v>
+        <v>354.8397216796875</v>
       </c>
       <c r="BZ3" t="n">
-        <v>294.9009094238281</v>
+        <v>354.6539306640625</v>
       </c>
       <c r="CA3" t="n">
-        <v>295.3088684082031</v>
+        <v>354.6858215332031</v>
       </c>
       <c r="CB3" t="n">
-        <v>295.6519165039062</v>
+        <v>354.7802429199219</v>
       </c>
       <c r="CC3" t="n">
-        <v>295.5662536621094</v>
+        <v>354.3873901367188</v>
       </c>
       <c r="CD3" t="n">
-        <v>295.0953979492188</v>
+        <v>352.154296875</v>
       </c>
       <c r="CE3" t="n">
-        <v>294.9586486816406</v>
+        <v>353.5853881835938</v>
       </c>
       <c r="CF3" t="n">
-        <v>296.9764099121094</v>
+        <v>353.8589782714844</v>
       </c>
       <c r="CG3" t="n">
-        <v>294.9512634277344</v>
+        <v>355.3753662109375</v>
       </c>
       <c r="CH3" t="n">
-        <v>290.4129943847656</v>
+        <v>357.2851867675781</v>
       </c>
       <c r="CI3" t="n">
-        <v>289.0521240234375</v>
+        <v>357.3058166503906</v>
       </c>
       <c r="CJ3" t="n">
-        <v>289.8795471191406</v>
+        <v>359.1814575195312</v>
       </c>
       <c r="CK3" t="n">
-        <v>288.9730529785156</v>
+        <v>359.1439208984375</v>
       </c>
       <c r="CL3" t="n">
-        <v>289.5063781738281</v>
+        <v>358.8390197753906</v>
       </c>
       <c r="CM3" t="n">
-        <v>290.9706726074219</v>
+        <v>359.3607482910156</v>
       </c>
       <c r="CN3" t="n">
-        <v>290.9447021484375</v>
+        <v>354.2145385742188</v>
       </c>
       <c r="CO3" t="n">
-        <v>289.9071655273438</v>
+        <v>351.5616760253906</v>
       </c>
       <c r="CP3" t="n">
-        <v>289.9200134277344</v>
+        <v>347.4270629882812</v>
       </c>
       <c r="CQ3" t="n">
-        <v>292.1709899902344</v>
+        <v>342.976318359375</v>
       </c>
       <c r="CR3" t="n">
-        <v>292.7925720214844</v>
+        <v>337.6072692871094</v>
       </c>
       <c r="CS3" t="n">
-        <v>290.014892578125</v>
+        <v>318.2684326171875</v>
       </c>
       <c r="CT3" t="n">
-        <v>287.0579223632812</v>
+        <v>298.3840026855469</v>
       </c>
       <c r="CU3" t="n">
-        <v>291.8398742675781</v>
+        <v>285.4348449707031</v>
       </c>
       <c r="CV3" t="n">
-        <v>233.70263671875</v>
+        <v>272.5285339355469</v>
       </c>
       <c r="CW3" t="n">
-        <v>271.44677734375</v>
+        <v>260.5694885253906</v>
       </c>
       <c r="CX3" t="n">
-        <v>288.7213439941406</v>
+        <v>225.0200042724609</v>
       </c>
       <c r="CY3" t="n">
-        <v>219.1525573730469</v>
+        <v>207.4919586181641</v>
       </c>
       <c r="CZ3" t="n">
-        <v>283.6245727539062</v>
+        <v>178.6047973632812</v>
       </c>
       <c r="DA3" t="n">
-        <v>287.34521484375</v>
+        <v>168.8676910400391</v>
       </c>
       <c r="DB3" t="n">
-        <v>283.9272155761719</v>
+        <v>159.9900207519531</v>
       </c>
       <c r="DC3" t="n">
-        <v>280.1119995117188</v>
+        <v>145.6705780029297</v>
       </c>
       <c r="DD3" t="n">
-        <v>284.0708618164062</v>
+        <v>135.7737579345703</v>
       </c>
       <c r="DE3" t="n">
-        <v>275.6730346679688</v>
+        <v>125.8542556762695</v>
       </c>
       <c r="DF3" t="n">
-        <v>294.7608642578125</v>
+        <v>119.8822937011719</v>
       </c>
       <c r="DG3" t="n">
-        <v>297.6861877441406</v>
+        <v>119.1282424926758</v>
       </c>
       <c r="DH3" t="n">
-        <v>301.0296630859375</v>
+        <v>123.5241394042969</v>
       </c>
       <c r="DI3" t="n">
-        <v>301.2883911132812</v>
+        <v>132.2443389892578</v>
       </c>
       <c r="DJ3" t="n">
-        <v>300.8464660644531</v>
+        <v>154.2572021484375</v>
       </c>
       <c r="DK3" t="n">
-        <v>295.9164428710938</v>
+        <v>175.1084594726562</v>
       </c>
       <c r="DL3" t="n">
-        <v>295.9422607421875</v>
+        <v>186.0848236083984</v>
       </c>
       <c r="DM3" t="n">
-        <v>294.8569946289062</v>
+        <v>199.8521575927734</v>
       </c>
       <c r="DN3" t="n">
-        <v>297.8062438964844</v>
+        <v>218.6215057373047</v>
       </c>
       <c r="DO3" t="n">
-        <v>290.6037292480469</v>
+        <v>243.0390014648438</v>
       </c>
       <c r="DP3" t="n">
-        <v>286.0530090332031</v>
+        <v>276.71142578125</v>
       </c>
       <c r="DQ3" t="n">
-        <v>297.8732604980469</v>
+        <v>320.1241455078125</v>
       </c>
       <c r="DR3" t="n">
-        <v>298.5113525390625</v>
+        <v>351.8865661621094</v>
       </c>
       <c r="DS3" t="n">
-        <v>288.4344787597656</v>
+        <v>365.7603759765625</v>
       </c>
       <c r="DT3" t="n">
-        <v>288.7036743164062</v>
+        <v>384.4348754882812</v>
       </c>
       <c r="DU3" t="n">
-        <v>278.4870300292969</v>
+        <v>391.1056213378906</v>
       </c>
       <c r="DV3" t="n">
-        <v>289.7474670410156</v>
+        <v>393.6270141601562</v>
       </c>
       <c r="DW3" t="n">
-        <v>288.8855590820312</v>
+        <v>394.5982666015625</v>
       </c>
       <c r="DX3" t="n">
-        <v>281.3598937988281</v>
+        <v>392.6096801757812</v>
       </c>
       <c r="DY3" t="n">
-        <v>278.1320495605469</v>
+        <v>391.4723205566406</v>
       </c>
       <c r="DZ3" t="n">
-        <v>278.6084899902344</v>
+        <v>385.6049194335938</v>
       </c>
       <c r="EA3" t="n">
-        <v>276.1268920898438</v>
+        <v>382.6788940429688</v>
       </c>
       <c r="EB3" t="n">
-        <v>274.1291198730469</v>
+        <v>376.7477416992188</v>
       </c>
       <c r="EC3" t="n">
-        <v>275.0035095214844</v>
+        <v>375.5080261230469</v>
       </c>
       <c r="ED3" t="n">
-        <v>279.4756164550781</v>
+        <v>374.9704284667969</v>
       </c>
       <c r="EE3" t="n">
-        <v>274.2997436523438</v>
+        <v>370.9506225585938</v>
       </c>
       <c r="EF3" t="n">
-        <v>267.6626892089844</v>
+        <v>368.9230346679688</v>
       </c>
       <c r="EG3" t="n">
-        <v>275.2069396972656</v>
+        <v>367.6514282226562</v>
       </c>
       <c r="EH3" t="n">
-        <v>278.0091857910156</v>
+        <v>369.6882019042969</v>
       </c>
       <c r="EI3" t="n">
-        <v>274.7292175292969</v>
+        <v>376.4292297363281</v>
       </c>
       <c r="EJ3" t="n">
-        <v>283.1194458007812</v>
+        <v>374.2043151855469</v>
       </c>
       <c r="EK3" t="n">
-        <v>281.5556945800781</v>
+        <v>372.2431640625</v>
       </c>
       <c r="EL3" t="n">
-        <v>280.9927062988281</v>
+        <v>368.2231140136719</v>
       </c>
       <c r="EM3" t="n">
-        <v>287.6903381347656</v>
+        <v>366.2540588378906</v>
       </c>
       <c r="EN3" t="n">
-        <v>286.3595275878906</v>
+        <v>366.3028869628906</v>
       </c>
       <c r="EO3" t="n">
-        <v>281.7108154296875</v>
+        <v>360.0272827148438</v>
       </c>
       <c r="EP3" t="n">
-        <v>283.7878112792969</v>
+        <v>359.6711730957031</v>
       </c>
       <c r="EQ3" t="n">
-        <v>288.4239196777344</v>
+        <v>362.3621826171875</v>
       </c>
       <c r="ER3" t="n">
-        <v>282.8933410644531</v>
+        <v>362.6338195800781</v>
       </c>
       <c r="ES3" t="n">
-        <v>278.4945068359375</v>
+        <v>359.6242370605469</v>
       </c>
       <c r="ET3" t="n">
-        <v>285.0492858886719</v>
+        <v>366.6007690429688</v>
       </c>
       <c r="EU3" t="n">
-        <v>285.527587890625</v>
+        <v>369.4308166503906</v>
       </c>
       <c r="EV3" t="n">
-        <v>281.8238830566406</v>
+        <v>365.5264587402344</v>
       </c>
       <c r="EW3" t="n">
-        <v>283.0246887207031</v>
+        <v>368.7848510742188</v>
       </c>
       <c r="EX3" t="n">
-        <v>281.6249389648438</v>
+        <v>367.5276489257812</v>
       </c>
       <c r="EY3" t="n">
-        <v>282.7777099609375</v>
+        <v>362.9019775390625</v>
       </c>
       <c r="EZ3" t="n">
-        <v>277.0861511230469</v>
+        <v>362.2635192871094</v>
       </c>
       <c r="FA3" t="n">
-        <v>279.1402893066406</v>
+        <v>367.5403747558594</v>
       </c>
       <c r="FB3" t="n">
-        <v>285.8190002441406</v>
+        <v>369.6969604492188</v>
       </c>
       <c r="FC3" t="n">
-        <v>278.3272399902344</v>
+        <v>363.6495056152344</v>
       </c>
       <c r="FD3" t="n">
-        <v>283.4468078613281</v>
+        <v>368.4745483398438</v>
       </c>
       <c r="FE3" t="n">
-        <v>288.5520324707031</v>
+        <v>367.8132629394531</v>
       </c>
       <c r="FF3" t="n">
-        <v>288.2033081054688</v>
+        <v>369.5469360351562</v>
       </c>
       <c r="FG3" t="n">
-        <v>280.056640625</v>
+        <v>369.237548828125</v>
       </c>
       <c r="FH3" t="n">
-        <v>272.7548828125</v>
+        <v>367.5896301269531</v>
       </c>
       <c r="FI3" t="n">
-        <v>271.3284912109375</v>
+        <v>366.4252624511719</v>
       </c>
       <c r="FJ3" t="n">
-        <v>277.0892639160156</v>
+        <v>366.6241455078125</v>
       </c>
       <c r="FK3" t="n">
-        <v>282.2915649414062</v>
+        <v>377.2066955566406</v>
       </c>
       <c r="FL3" t="n">
-        <v>285.4645385742188</v>
+        <v>376.323974609375</v>
       </c>
       <c r="FM3" t="n">
-        <v>285.3671264648438</v>
+        <v>374.1797180175781</v>
       </c>
       <c r="FN3" t="n">
-        <v>281.7442932128906</v>
+        <v>372.6133117675781</v>
       </c>
       <c r="FO3" t="n">
-        <v>301.8962707519531</v>
+        <v>372.7326049804688</v>
       </c>
       <c r="FP3" t="n">
-        <v>302.6552734375</v>
+        <v>362.6130981445312</v>
       </c>
       <c r="FQ3" t="n">
-        <v>305.8681030273438</v>
+        <v>361.7506103515625</v>
       </c>
       <c r="FR3" t="n">
-        <v>299.6685485839844</v>
+        <v>361.2331237792969</v>
       </c>
       <c r="FS3" t="n">
-        <v>300.3563232421875</v>
+        <v>362.1816711425781</v>
       </c>
       <c r="FT3" t="n">
-        <v>299.4843139648438</v>
+        <v>362.39599609375</v>
       </c>
       <c r="FU3" t="n">
-        <v>296.1617736816406</v>
+        <v>359.3952026367188</v>
       </c>
       <c r="FV3" t="n">
-        <v>295.8109130859375</v>
+        <v>365.5080871582031</v>
       </c>
       <c r="FW3" t="n">
-        <v>298.2646179199219</v>
+        <v>364.8278503417969</v>
       </c>
       <c r="FX3" t="n">
-        <v>293.521240234375</v>
+        <v>367.4125671386719</v>
       </c>
       <c r="FY3" t="n">
-        <v>297.3060607910156</v>
+        <v>371.299560546875</v>
       </c>
       <c r="FZ3" t="n">
-        <v>294.0197448730469</v>
+        <v>371.017578125</v>
       </c>
       <c r="GA3" t="n">
-        <v>298.6686401367188</v>
+        <v>372.7210083007812</v>
       </c>
       <c r="GB3" t="n">
-        <v>300.2235107421875</v>
+        <v>366.8061828613281</v>
       </c>
       <c r="GC3" t="n">
-        <v>301.8154602050781</v>
+        <v>367.8971557617188</v>
       </c>
       <c r="GD3" t="n">
-        <v>301.6119689941406</v>
+        <v>372.8223876953125</v>
       </c>
       <c r="GE3" t="n">
-        <v>274.1712951660156</v>
+        <v>370.7857055664062</v>
       </c>
       <c r="GF3" t="n">
-        <v>280.7412109375</v>
+        <v>371.5860290527344</v>
       </c>
       <c r="GG3" t="n">
-        <v>283.5490417480469</v>
+        <v>370.0499267578125</v>
       </c>
       <c r="GH3" t="n">
-        <v>290.3664245605469</v>
+        <v>365.0987854003906</v>
       </c>
       <c r="GI3" t="n">
-        <v>287.1789245605469</v>
+        <v>367.1246643066406</v>
       </c>
       <c r="GJ3" t="n">
-        <v>292.6708068847656</v>
+        <v>369.0041809082031</v>
       </c>
       <c r="GK3" t="n">
-        <v>303.2154541015625</v>
+        <v>362.5999755859375</v>
       </c>
       <c r="GL3" t="n">
-        <v>302.8632507324219</v>
+        <v>362.6313171386719</v>
       </c>
       <c r="GM3" t="n">
-        <v>302.1635131835938</v>
+        <v>363.6812133789062</v>
       </c>
       <c r="GN3" t="n">
-        <v>303.0126342773438</v>
+        <v>360.1669616699219</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.2679138183594</v>
+        <v>360.6982727050781</v>
       </c>
       <c r="GP3" t="n">
-        <v>294.5921325683594</v>
+        <v>361.5477600097656</v>
       </c>
       <c r="GQ3" t="n">
-        <v>294.3631896972656</v>
+        <v>357.5912780761719</v>
       </c>
       <c r="GR3" t="n">
-        <v>213.3030395507812</v>
+        <v>350.5974731445312</v>
       </c>
       <c r="GS3" t="n">
-        <v>207.8682098388672</v>
+        <v>351.3731689453125</v>
       </c>
       <c r="GT3" t="n">
-        <v>231.9485321044922</v>
+        <v>350.6724548339844</v>
       </c>
       <c r="GU3" t="n">
-        <v>187.6669464111328</v>
+        <v>342.382568359375</v>
       </c>
       <c r="GV3" t="n">
-        <v>179.1622619628906</v>
+        <v>347.2666931152344</v>
       </c>
       <c r="GW3" t="n">
-        <v>169.5588073730469</v>
+        <v>340.0918273925781</v>
       </c>
       <c r="GX3" t="n">
-        <v>192.4516296386719</v>
+        <v>341.8255004882812</v>
       </c>
       <c r="GY3" t="n">
-        <v>199.8065643310547</v>
+        <v>333.8869323730469</v>
       </c>
       <c r="GZ3" t="n">
-        <v>193.4085693359375</v>
+        <v>337.1023864746094</v>
       </c>
       <c r="HA3" t="n">
-        <v>256.1669006347656</v>
+        <v>342.1143493652344</v>
       </c>
       <c r="HB3" t="n">
-        <v>281.9844360351562</v>
+        <v>340.1664428710938</v>
       </c>
       <c r="HC3" t="n">
-        <v>277.3189697265625</v>
+        <v>344.2510375976562</v>
       </c>
       <c r="HD3" t="n">
-        <v>265.1556701660156</v>
+        <v>334.1820983886719</v>
       </c>
       <c r="HE3" t="n">
-        <v>262.61328125</v>
+        <v>338.9710388183594</v>
       </c>
       <c r="HF3" t="n">
-        <v>249.6304016113281</v>
+        <v>339.2447814941406</v>
       </c>
       <c r="HG3" t="n">
-        <v>241.6122131347656</v>
+        <v>333.6327819824219</v>
       </c>
       <c r="HH3" t="n">
-        <v>244.2235870361328</v>
+        <v>335.6546020507812</v>
       </c>
       <c r="HI3" t="n">
-        <v>250.5708465576172</v>
+        <v>336.251220703125</v>
       </c>
       <c r="HJ3" t="n">
-        <v>262.0679931640625</v>
+        <v>345.7269897460938</v>
       </c>
       <c r="HK3" t="n">
-        <v>284.794921875</v>
+        <v>342.1410522460938</v>
       </c>
       <c r="HL3" t="n">
-        <v>288.6454467773438</v>
+        <v>355.1887817382812</v>
       </c>
       <c r="HM3" t="n">
-        <v>280.6297912597656</v>
+        <v>361.2636413574219</v>
       </c>
       <c r="HN3" t="n">
-        <v>265.6739807128906</v>
+        <v>364.9400939941406</v>
       </c>
       <c r="HO3" t="n">
-        <v>257.4046325683594</v>
+        <v>370.9464416503906</v>
       </c>
       <c r="HP3" t="n">
-        <v>249.5940093994141</v>
+        <v>373.7347717285156</v>
       </c>
       <c r="HQ3" t="n">
-        <v>252.9489593505859</v>
+        <v>372.7506103515625</v>
       </c>
       <c r="HR3" t="n">
-        <v>239.2069702148438</v>
+        <v>365.9609069824219</v>
       </c>
       <c r="HS3" t="n">
-        <v>246.3436584472656</v>
+        <v>369.4181213378906</v>
       </c>
       <c r="HT3" t="n">
-        <v>231.9490509033203</v>
+        <v>368.6916198730469</v>
       </c>
       <c r="HU3" t="n">
-        <v>220.884521484375</v>
+        <v>367.6944580078125</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>366.1548767089844</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>364.5082702636719</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>364.2981262207031</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>363.2513122558594</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>361.1494140625</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>360.3471374511719</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>359.298583984375</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>359.1252746582031</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>358.9175109863281</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>359.2550048828125</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>360.2514343261719</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>362.1973571777344</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>366.2659606933594</v>
+      </c>
+      <c r="II3" t="n">
+        <v>362.7290954589844</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>364.6670532226562</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>362.6498107910156</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>363.5378112792969</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>359.8600158691406</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>356.9259948730469</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>356.4713134765625</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>343.0186157226562</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>342.3538818359375</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>343.2706298828125</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>348.6025085449219</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>335.4621276855469</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>338.9114990234375</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>348.7644958496094</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>331.0069885253906</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>333.8709106445312</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>333.7349243164062</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>332.1546936035156</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>337.9637756347656</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>340.9247741699219</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>338.9519348144531</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>348.0895690917969</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>359.8229675292969</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>354.7552185058594</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>367.0489807128906</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>373.3424987792969</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>373.9238891601562</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>370.2123107910156</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>370.290771484375</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>371.8172607421875</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>370.0165405273438</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>370.2391662597656</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>371.3427124023438</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>367.9776611328125</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>368.9655151367188</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>368.2969970703125</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>381.298583984375</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>378.7894592285156</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>380.6157531738281</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>370.2009582519531</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>370.1546936035156</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>371.0336303710938</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>371.5726318359375</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>371.6323547363281</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>368.9307861328125</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>369.1211242675781</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>359.8609008789062</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>354.073486328125</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>347.0654296875</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>345.714111328125</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>344.661376953125</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>346.270751953125</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>345.8078308105469</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>347.1369934082031</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>346.9897766113281</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>332.221923828125</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>313.6156921386719</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>291.0509338378906</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>273.6642150878906</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>235.3981170654297</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>228.8381805419922</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>213.2865600585938</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>209.5922088623047</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>205.2434692382812</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>203.6405487060547</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>206.0934143066406</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>208.9247741699219</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>212.5065002441406</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>213.4786834716797</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>227.4075012207031</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>341.2459411621094</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>349.9789733886719</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>359.5060119628906</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>375.8261108398438</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>381.0973205566406</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>371.2799682617188</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>370.9219055175781</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>380.9634094238281</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>385.7821655273438</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>391.1563110351562</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>389.6095275878906</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>390.4601135253906</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>390.5428466796875</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>388.4360046386719</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>388.2500915527344</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>389.6636962890625</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>385.9819030761719</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>390.3916320800781</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>394.4525756835938</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>393.3506469726562</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>390.1112060546875</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>394.6198120117188</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>395.6237487792969</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>390.9153747558594</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>447.0148620605469</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>446.7133483886719</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>452.6633911132812</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>465.0149841308594</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>468.2640075683594</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>462.1670227050781</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>389.9059143066406</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>388.7272033691406</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>405.1083374023438</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>418.8292541503906</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>443.1793518066406</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>433.6417236328125</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>489.0758972167969</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>509.7059936523438</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>534.3797607421875</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>500.6416015625</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>516.6718139648438</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>522.2398681640625</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>524.6810913085938</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>466.1654663085938</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>437.1546936035156</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>381.2560729980469</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>267.6165466308594</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>261.5932006835938</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>241.1531982421875</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>243.9470367431641</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>347.5322875976562</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>517.4501342773438</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>555.2807006835938</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>524.647705078125</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>505.2214050292969</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>491.6592407226562</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>486.2373657226562</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>480.7734375</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>475.3484802246094</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>463.4003295898438</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>436.3699645996094</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>451.3350830078125</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>481.2893981933594</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>493.9055480957031</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>534.2070922851562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>356.7654418945312</v>
+        <v>531.7049560546875</v>
       </c>
       <c r="B4" t="n">
-        <v>385.779052734375</v>
+        <v>520.8203125</v>
       </c>
       <c r="C4" t="n">
-        <v>425.026123046875</v>
+        <v>531.616455078125</v>
       </c>
       <c r="D4" t="n">
-        <v>469.4475708007812</v>
+        <v>548.6459350585938</v>
       </c>
       <c r="E4" t="n">
-        <v>512.0263671875</v>
+        <v>573.7112426757812</v>
       </c>
       <c r="F4" t="n">
-        <v>557.5320434570312</v>
+        <v>617.5660400390625</v>
       </c>
       <c r="G4" t="n">
-        <v>612.1515502929688</v>
+        <v>674.3729248046875</v>
       </c>
       <c r="H4" t="n">
-        <v>678.8699951171875</v>
+        <v>730.8992309570312</v>
       </c>
       <c r="I4" t="n">
-        <v>732.670166015625</v>
+        <v>784.0914306640625</v>
       </c>
       <c r="J4" t="n">
-        <v>783.4698486328125</v>
+        <v>849.48583984375</v>
       </c>
       <c r="K4" t="n">
-        <v>834.33349609375</v>
+        <v>917.0353393554688</v>
       </c>
       <c r="L4" t="n">
-        <v>888.2316284179688</v>
+        <v>984.7884521484375</v>
       </c>
       <c r="M4" t="n">
-        <v>938.5068969726562</v>
+        <v>1178.58154296875</v>
       </c>
       <c r="N4" t="n">
-        <v>1004.360046386719</v>
+        <v>1173.393188476562</v>
       </c>
       <c r="O4" t="n">
-        <v>1124.697265625</v>
+        <v>1172.689575195312</v>
       </c>
       <c r="P4" t="n">
-        <v>1184.556762695312</v>
+        <v>1174.739135742188</v>
       </c>
       <c r="Q4" t="n">
-        <v>1229.304565429688</v>
+        <v>1175.83935546875</v>
       </c>
       <c r="R4" t="n">
-        <v>1263.290161132812</v>
+        <v>1186.783569335938</v>
       </c>
       <c r="S4" t="n">
-        <v>1291.263793945312</v>
+        <v>1195.823608398438</v>
       </c>
       <c r="T4" t="n">
-        <v>1320.950439453125</v>
+        <v>1194.953125</v>
       </c>
       <c r="U4" t="n">
-        <v>1342.942993164062</v>
+        <v>1210.27685546875</v>
       </c>
       <c r="V4" t="n">
-        <v>1366.888061523438</v>
+        <v>1210.076538085938</v>
       </c>
       <c r="W4" t="n">
-        <v>1389.995727539062</v>
+        <v>1207.264282226562</v>
       </c>
       <c r="X4" t="n">
-        <v>1419.888549804688</v>
+        <v>1199.68408203125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1443.439208984375</v>
+        <v>1190.714477539062</v>
       </c>
       <c r="Z4" t="n">
-        <v>1464.552368164062</v>
+        <v>1193.208251953125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1502.559204101562</v>
+        <v>1200.360473632812</v>
       </c>
       <c r="AB4" t="n">
-        <v>1554.067626953125</v>
+        <v>1213.819580078125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1600.57373046875</v>
+        <v>1229.680786132812</v>
       </c>
       <c r="AD4" t="n">
-        <v>1655.701416015625</v>
+        <v>1234.265625</v>
       </c>
       <c r="AE4" t="n">
-        <v>1721.748046875</v>
+        <v>1243.306030273438</v>
       </c>
       <c r="AF4" t="n">
-        <v>1797.302368164062</v>
+        <v>1258.974365234375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1851.102294921875</v>
+        <v>1270.708984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1923.220092773438</v>
+        <v>1308.188842773438</v>
       </c>
       <c r="AI4" t="n">
-        <v>2005.231079101562</v>
+        <v>1328.03125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2126.613037109375</v>
+        <v>1331.502197265625</v>
       </c>
       <c r="AK4" t="n">
-        <v>2190.41748046875</v>
+        <v>1336.616821289062</v>
       </c>
       <c r="AL4" t="n">
-        <v>2196.21630859375</v>
+        <v>1344.828002929688</v>
       </c>
       <c r="AM4" t="n">
-        <v>2219.790283203125</v>
+        <v>1328.50048828125</v>
       </c>
       <c r="AN4" t="n">
-        <v>2334.197509765625</v>
+        <v>1327.065795898438</v>
       </c>
       <c r="AO4" t="n">
-        <v>2421.42529296875</v>
+        <v>1327.042114257812</v>
       </c>
       <c r="AP4" t="n">
-        <v>2488.4248046875</v>
+        <v>1327.36376953125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2523.630126953125</v>
+        <v>1323.265380859375</v>
       </c>
       <c r="AR4" t="n">
-        <v>2585.943115234375</v>
+        <v>1317.998901367188</v>
       </c>
       <c r="AS4" t="n">
-        <v>2583.6494140625</v>
+        <v>1318.146240234375</v>
       </c>
       <c r="AT4" t="n">
-        <v>2610.98974609375</v>
+        <v>1316.61328125</v>
       </c>
       <c r="AU4" t="n">
-        <v>2647.88720703125</v>
+        <v>1313.4462890625</v>
       </c>
       <c r="AV4" t="n">
-        <v>2684.010986328125</v>
+        <v>1311.1015625</v>
       </c>
       <c r="AW4" t="n">
-        <v>2732.701904296875</v>
+        <v>1306.853515625</v>
       </c>
       <c r="AX4" t="n">
-        <v>2766.58056640625</v>
+        <v>1300.115356445312</v>
       </c>
       <c r="AY4" t="n">
-        <v>2807.5771484375</v>
+        <v>1298.660888671875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2847.20556640625</v>
+        <v>1299.971069335938</v>
       </c>
       <c r="BA4" t="n">
-        <v>2861.416015625</v>
+        <v>1301.835693359375</v>
       </c>
       <c r="BB4" t="n">
-        <v>2878.01953125</v>
+        <v>1305.36474609375</v>
       </c>
       <c r="BC4" t="n">
-        <v>2877.60791015625</v>
+        <v>1301.515380859375</v>
       </c>
       <c r="BD4" t="n">
-        <v>2881.039794921875</v>
+        <v>1301.93701171875</v>
       </c>
       <c r="BE4" t="n">
-        <v>2905.447021484375</v>
+        <v>1300.2568359375</v>
       </c>
       <c r="BF4" t="n">
-        <v>2953.70556640625</v>
+        <v>1307.84375</v>
       </c>
       <c r="BG4" t="n">
-        <v>2838.3994140625</v>
+        <v>1305.320190429688</v>
       </c>
       <c r="BH4" t="n">
-        <v>2872.28515625</v>
+        <v>1299.413940429688</v>
       </c>
       <c r="BI4" t="n">
-        <v>2898.199462890625</v>
+        <v>1271.281616210938</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2922.62109375</v>
+        <v>1249.379516601562</v>
       </c>
       <c r="BK4" t="n">
-        <v>2947.843505859375</v>
+        <v>1226.989135742188</v>
       </c>
       <c r="BL4" t="n">
-        <v>3001.156005859375</v>
+        <v>1206.704345703125</v>
       </c>
       <c r="BM4" t="n">
-        <v>3023.3837890625</v>
+        <v>1189.590087890625</v>
       </c>
       <c r="BN4" t="n">
-        <v>3052.716796875</v>
+        <v>1174.907836914062</v>
       </c>
       <c r="BO4" t="n">
-        <v>3088.788818359375</v>
+        <v>1139.843872070312</v>
       </c>
       <c r="BP4" t="n">
-        <v>3149.212646484375</v>
+        <v>1128.236694335938</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3176.955322265625</v>
+        <v>1114.47900390625</v>
       </c>
       <c r="BR4" t="n">
-        <v>3165.48193359375</v>
+        <v>1106.22998046875</v>
       </c>
       <c r="BS4" t="n">
-        <v>3152.62841796875</v>
+        <v>1094.029541015625</v>
       </c>
       <c r="BT4" t="n">
-        <v>3223.7451171875</v>
+        <v>1084.068115234375</v>
       </c>
       <c r="BU4" t="n">
-        <v>3280.587890625</v>
+        <v>1076.031860351562</v>
       </c>
       <c r="BV4" t="n">
-        <v>3275.696533203125</v>
+        <v>1075.327514648438</v>
       </c>
       <c r="BW4" t="n">
-        <v>3281.72412109375</v>
+        <v>1074.645263671875</v>
       </c>
       <c r="BX4" t="n">
-        <v>3315.64453125</v>
+        <v>1073.82861328125</v>
       </c>
       <c r="BY4" t="n">
-        <v>3344.11376953125</v>
+        <v>1075.204467773438</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3504.527099609375</v>
+        <v>1076.103759765625</v>
       </c>
       <c r="CA4" t="n">
-        <v>3485.93408203125</v>
+        <v>1077.350341796875</v>
       </c>
       <c r="CB4" t="n">
-        <v>3434.126953125</v>
+        <v>1084.833129882812</v>
       </c>
       <c r="CC4" t="n">
-        <v>3475.727783203125</v>
+        <v>1098.554809570312</v>
       </c>
       <c r="CD4" t="n">
-        <v>3425.14501953125</v>
+        <v>1113.935668945312</v>
       </c>
       <c r="CE4" t="n">
-        <v>3431.931884765625</v>
+        <v>1119.470092773438</v>
       </c>
       <c r="CF4" t="n">
-        <v>3466.826416015625</v>
+        <v>1121.065551757812</v>
       </c>
       <c r="CG4" t="n">
-        <v>3588.008056640625</v>
+        <v>1121.751586914062</v>
       </c>
       <c r="CH4" t="n">
-        <v>3688.769287109375</v>
+        <v>1122.630859375</v>
       </c>
       <c r="CI4" t="n">
-        <v>3752.283447265625</v>
+        <v>1128.950561523438</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3733.116943359375</v>
+        <v>1134.740600585938</v>
       </c>
       <c r="CK4" t="n">
-        <v>3759.563232421875</v>
+        <v>1132.754760742188</v>
       </c>
       <c r="CL4" t="n">
-        <v>3771.34716796875</v>
+        <v>1131.0791015625</v>
       </c>
       <c r="CM4" t="n">
-        <v>3719.437255859375</v>
+        <v>1128.112548828125</v>
       </c>
       <c r="CN4" t="n">
-        <v>3645.607177734375</v>
+        <v>1127.4248046875</v>
       </c>
       <c r="CO4" t="n">
-        <v>3599.485107421875</v>
+        <v>1125.93603515625</v>
       </c>
       <c r="CP4" t="n">
-        <v>3564.58837890625</v>
+        <v>1125.389770507812</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3656.4794921875</v>
+        <v>1125.104858398438</v>
       </c>
       <c r="CR4" t="n">
-        <v>3621.645751953125</v>
+        <v>1125.3408203125</v>
       </c>
       <c r="CS4" t="n">
-        <v>3537.020751953125</v>
+        <v>1138.495971679688</v>
       </c>
       <c r="CT4" t="n">
-        <v>3516.291259765625</v>
+        <v>1166.408325195312</v>
       </c>
       <c r="CU4" t="n">
-        <v>3580.9228515625</v>
+        <v>1182.719848632812</v>
       </c>
       <c r="CV4" t="n">
-        <v>3492.8310546875</v>
+        <v>1187.823608398438</v>
       </c>
       <c r="CW4" t="n">
-        <v>3891.1845703125</v>
+        <v>1209.503784179688</v>
       </c>
       <c r="CX4" t="n">
-        <v>3756.74658203125</v>
+        <v>1232.443237304688</v>
       </c>
       <c r="CY4" t="n">
-        <v>3541.1962890625</v>
+        <v>1236.855590820312</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3530.127197265625</v>
+        <v>1241.92333984375</v>
       </c>
       <c r="DA4" t="n">
-        <v>3510.22314453125</v>
+        <v>1240.980590820312</v>
       </c>
       <c r="DB4" t="n">
-        <v>3512.448974609375</v>
+        <v>1242.189086914062</v>
       </c>
       <c r="DC4" t="n">
-        <v>3522.19189453125</v>
+        <v>1244.748046875</v>
       </c>
       <c r="DD4" t="n">
-        <v>3584.14990234375</v>
+        <v>1249.679443359375</v>
       </c>
       <c r="DE4" t="n">
-        <v>3599.21044921875</v>
+        <v>1243.463256835938</v>
       </c>
       <c r="DF4" t="n">
-        <v>3715.7412109375</v>
+        <v>1237.572875976562</v>
       </c>
       <c r="DG4" t="n">
-        <v>3671.352294921875</v>
+        <v>1231.532104492188</v>
       </c>
       <c r="DH4" t="n">
-        <v>3655.620849609375</v>
+        <v>1203.240356445312</v>
       </c>
       <c r="DI4" t="n">
-        <v>3662.705322265625</v>
+        <v>1200.5263671875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3651.5224609375</v>
+        <v>1189.02294921875</v>
       </c>
       <c r="DK4" t="n">
-        <v>3713.7783203125</v>
+        <v>1156.390991210938</v>
       </c>
       <c r="DL4" t="n">
-        <v>3707.2958984375</v>
+        <v>1138.072875976562</v>
       </c>
       <c r="DM4" t="n">
-        <v>3704.195068359375</v>
+        <v>1116.378173828125</v>
       </c>
       <c r="DN4" t="n">
-        <v>3663.622314453125</v>
+        <v>1099.879028320312</v>
       </c>
       <c r="DO4" t="n">
-        <v>3455.101318359375</v>
+        <v>1085.210815429688</v>
       </c>
       <c r="DP4" t="n">
-        <v>3432.3427734375</v>
+        <v>1141.44384765625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3469.62060546875</v>
+        <v>1129.092895507812</v>
       </c>
       <c r="DR4" t="n">
-        <v>3454.70947265625</v>
+        <v>1107.794555664062</v>
       </c>
       <c r="DS4" t="n">
-        <v>3361.934814453125</v>
+        <v>1079.99365234375</v>
       </c>
       <c r="DT4" t="n">
-        <v>3408.4033203125</v>
+        <v>1106.227783203125</v>
       </c>
       <c r="DU4" t="n">
-        <v>3443.739990234375</v>
+        <v>1132.66748046875</v>
       </c>
       <c r="DV4" t="n">
-        <v>3442.135009765625</v>
+        <v>1142.5009765625</v>
       </c>
       <c r="DW4" t="n">
-        <v>3431.0673828125</v>
+        <v>1163.760375976562</v>
       </c>
       <c r="DX4" t="n">
-        <v>3440.34814453125</v>
+        <v>1162.48779296875</v>
       </c>
       <c r="DY4" t="n">
-        <v>3442.295166015625</v>
+        <v>1152.024536132812</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3427.82568359375</v>
+        <v>1154.4052734375</v>
       </c>
       <c r="EA4" t="n">
-        <v>3423.8076171875</v>
+        <v>1161.349853515625</v>
       </c>
       <c r="EB4" t="n">
-        <v>3410.602783203125</v>
+        <v>1162.228149414062</v>
       </c>
       <c r="EC4" t="n">
-        <v>3385.018798828125</v>
+        <v>1167.561279296875</v>
       </c>
       <c r="ED4" t="n">
-        <v>3427.44921875</v>
+        <v>1179.517578125</v>
       </c>
       <c r="EE4" t="n">
-        <v>3382.931640625</v>
+        <v>1215.278686523438</v>
       </c>
       <c r="EF4" t="n">
-        <v>3391.185546875</v>
+        <v>1240.02197265625</v>
       </c>
       <c r="EG4" t="n">
-        <v>3344.139404296875</v>
+        <v>1295.566284179688</v>
       </c>
       <c r="EH4" t="n">
-        <v>3353.331298828125</v>
+        <v>1312.301391601562</v>
       </c>
       <c r="EI4" t="n">
-        <v>3355.151611328125</v>
+        <v>1332.917724609375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3344.875</v>
+        <v>1352.048583984375</v>
       </c>
       <c r="EK4" t="n">
-        <v>3327.556396484375</v>
+        <v>1360.173583984375</v>
       </c>
       <c r="EL4" t="n">
-        <v>3289.220703125</v>
+        <v>1365.906982421875</v>
       </c>
       <c r="EM4" t="n">
-        <v>3201.640869140625</v>
+        <v>1379.923217773438</v>
       </c>
       <c r="EN4" t="n">
-        <v>3274.39111328125</v>
+        <v>1399.89453125</v>
       </c>
       <c r="EO4" t="n">
-        <v>3313.187255859375</v>
+        <v>1413.92822265625</v>
       </c>
       <c r="EP4" t="n">
-        <v>3286.13525390625</v>
+        <v>1420.9873046875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3208.11572265625</v>
+        <v>1431.181030273438</v>
       </c>
       <c r="ER4" t="n">
-        <v>3177.100341796875</v>
+        <v>1437.4697265625</v>
       </c>
       <c r="ES4" t="n">
-        <v>3151.424560546875</v>
+        <v>1446.2763671875</v>
       </c>
       <c r="ET4" t="n">
-        <v>3151.142578125</v>
+        <v>1432.905883789062</v>
       </c>
       <c r="EU4" t="n">
-        <v>3157.125</v>
+        <v>1441.013305664062</v>
       </c>
       <c r="EV4" t="n">
-        <v>3190.517578125</v>
+        <v>1450.477172851562</v>
       </c>
       <c r="EW4" t="n">
-        <v>3183.503173828125</v>
+        <v>1515.812377929688</v>
       </c>
       <c r="EX4" t="n">
-        <v>3205.58447265625</v>
+        <v>1567.992065429688</v>
       </c>
       <c r="EY4" t="n">
-        <v>3218.92431640625</v>
+        <v>1614.079956054688</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3200.0654296875</v>
+        <v>1626.122192382812</v>
       </c>
       <c r="FA4" t="n">
-        <v>3168.460693359375</v>
+        <v>1686.791625976562</v>
       </c>
       <c r="FB4" t="n">
-        <v>3137.947265625</v>
+        <v>1710.1884765625</v>
       </c>
       <c r="FC4" t="n">
-        <v>3248.994140625</v>
+        <v>1772.492309570312</v>
       </c>
       <c r="FD4" t="n">
-        <v>3172.09130859375</v>
+        <v>1822.346313476562</v>
       </c>
       <c r="FE4" t="n">
-        <v>3174.045654296875</v>
+        <v>1839.303588867188</v>
       </c>
       <c r="FF4" t="n">
-        <v>3162.65478515625</v>
+        <v>1868.738525390625</v>
       </c>
       <c r="FG4" t="n">
-        <v>3155.93017578125</v>
+        <v>1942.090454101562</v>
       </c>
       <c r="FH4" t="n">
-        <v>3198.715087890625</v>
+        <v>1961.351806640625</v>
       </c>
       <c r="FI4" t="n">
-        <v>3260.123046875</v>
+        <v>2035.033325195312</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3213.799072265625</v>
+        <v>2088.076904296875</v>
       </c>
       <c r="FK4" t="n">
-        <v>3190.072998046875</v>
+        <v>2125.797607421875</v>
       </c>
       <c r="FL4" t="n">
-        <v>3221.381591796875</v>
+        <v>2114.30419921875</v>
       </c>
       <c r="FM4" t="n">
-        <v>3208.1865234375</v>
+        <v>2119.4609375</v>
       </c>
       <c r="FN4" t="n">
-        <v>3397.864013671875</v>
+        <v>2154.904541015625</v>
       </c>
       <c r="FO4" t="n">
-        <v>3524.511474609375</v>
+        <v>2194.331787109375</v>
       </c>
       <c r="FP4" t="n">
-        <v>3484.82861328125</v>
+        <v>2250.042724609375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3433.736572265625</v>
+        <v>2276.12841796875</v>
       </c>
       <c r="FR4" t="n">
-        <v>3504.900146484375</v>
+        <v>2398.549072265625</v>
       </c>
       <c r="FS4" t="n">
-        <v>3505.19873046875</v>
+        <v>2410.718994140625</v>
       </c>
       <c r="FT4" t="n">
-        <v>3500.713134765625</v>
+        <v>2373.98876953125</v>
       </c>
       <c r="FU4" t="n">
-        <v>3495.25634765625</v>
+        <v>2337.595703125</v>
       </c>
       <c r="FV4" t="n">
-        <v>3508.51416015625</v>
+        <v>2381.343505859375</v>
       </c>
       <c r="FW4" t="n">
-        <v>3369.50439453125</v>
+        <v>2298.998779296875</v>
       </c>
       <c r="FX4" t="n">
-        <v>3528.612060546875</v>
+        <v>2309.742431640625</v>
       </c>
       <c r="FY4" t="n">
-        <v>3472.34619140625</v>
+        <v>2354.71630859375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3532.396240234375</v>
+        <v>2293.008544921875</v>
       </c>
       <c r="GA4" t="n">
-        <v>3416.65576171875</v>
+        <v>2291.8876953125</v>
       </c>
       <c r="GB4" t="n">
-        <v>3367.616943359375</v>
+        <v>2216.820068359375</v>
       </c>
       <c r="GC4" t="n">
-        <v>3264.10302734375</v>
+        <v>2230.90869140625</v>
       </c>
       <c r="GD4" t="n">
-        <v>3232.953125</v>
+        <v>2269.48193359375</v>
       </c>
       <c r="GE4" t="n">
-        <v>2938.590576171875</v>
+        <v>2240.986572265625</v>
       </c>
       <c r="GF4" t="n">
-        <v>2899.590087890625</v>
+        <v>2260.68017578125</v>
       </c>
       <c r="GG4" t="n">
-        <v>2850.722412109375</v>
+        <v>2337.175048828125</v>
       </c>
       <c r="GH4" t="n">
-        <v>2799.37890625</v>
+        <v>2233.99951171875</v>
       </c>
       <c r="GI4" t="n">
-        <v>2793.33251953125</v>
+        <v>2244.002197265625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2775.18408203125</v>
+        <v>2306.48876953125</v>
       </c>
       <c r="GK4" t="n">
-        <v>3010.487060546875</v>
+        <v>2227.966064453125</v>
       </c>
       <c r="GL4" t="n">
-        <v>2952.9912109375</v>
+        <v>2236.4677734375</v>
       </c>
       <c r="GM4" t="n">
-        <v>2948.7998046875</v>
+        <v>2217.38330078125</v>
       </c>
       <c r="GN4" t="n">
-        <v>2918.638916015625</v>
+        <v>2205.304931640625</v>
       </c>
       <c r="GO4" t="n">
-        <v>2900.5908203125</v>
+        <v>2205.4052734375</v>
       </c>
       <c r="GP4" t="n">
-        <v>2821.77099609375</v>
+        <v>2174.928955078125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2805.83251953125</v>
+        <v>2132.53369140625</v>
       </c>
       <c r="GR4" t="n">
-        <v>2698.239990234375</v>
+        <v>2133.21484375</v>
       </c>
       <c r="GS4" t="n">
-        <v>2642.900146484375</v>
+        <v>2106.129150390625</v>
       </c>
       <c r="GT4" t="n">
-        <v>2783.738037109375</v>
+        <v>2065.963134765625</v>
       </c>
       <c r="GU4" t="n">
-        <v>2433.6396484375</v>
+        <v>2079.97314453125</v>
       </c>
       <c r="GV4" t="n">
-        <v>2441.2958984375</v>
+        <v>2022.069091796875</v>
       </c>
       <c r="GW4" t="n">
-        <v>2347.22412109375</v>
+        <v>2000.053466796875</v>
       </c>
       <c r="GX4" t="n">
-        <v>2019.509155273438</v>
+        <v>2007.490966796875</v>
       </c>
       <c r="GY4" t="n">
-        <v>1875.03466796875</v>
+        <v>2004.628173828125</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1928.576416015625</v>
+        <v>2013.582763671875</v>
       </c>
       <c r="HA4" t="n">
-        <v>1723.562255859375</v>
+        <v>2016.76611328125</v>
       </c>
       <c r="HB4" t="n">
-        <v>1705.533081054688</v>
+        <v>2018.879638671875</v>
       </c>
       <c r="HC4" t="n">
-        <v>1638.242431640625</v>
+        <v>1993.2861328125</v>
       </c>
       <c r="HD4" t="n">
-        <v>1637.46630859375</v>
+        <v>2029.411376953125</v>
       </c>
       <c r="HE4" t="n">
-        <v>1612.059814453125</v>
+        <v>1996.330322265625</v>
       </c>
       <c r="HF4" t="n">
-        <v>1524.567260742188</v>
+        <v>1991.8037109375</v>
       </c>
       <c r="HG4" t="n">
-        <v>1461.607299804688</v>
+        <v>1992.393920898438</v>
       </c>
       <c r="HH4" t="n">
-        <v>1373.5322265625</v>
+        <v>2053.456787109375</v>
       </c>
       <c r="HI4" t="n">
-        <v>1284.177856445312</v>
+        <v>2026.867431640625</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1218.526733398438</v>
+        <v>2053.1083984375</v>
       </c>
       <c r="HK4" t="n">
-        <v>1119.802368164062</v>
+        <v>2020.665161132812</v>
       </c>
       <c r="HL4" t="n">
-        <v>1030.124877929688</v>
+        <v>2081.846435546875</v>
       </c>
       <c r="HM4" t="n">
-        <v>945.821044921875</v>
+        <v>2080.205078125</v>
       </c>
       <c r="HN4" t="n">
-        <v>829.0675659179688</v>
+        <v>2086.76806640625</v>
       </c>
       <c r="HO4" t="n">
-        <v>759.6202392578125</v>
+        <v>2201.13037109375</v>
       </c>
       <c r="HP4" t="n">
-        <v>710.4244995117188</v>
+        <v>2181.491943359375</v>
       </c>
       <c r="HQ4" t="n">
-        <v>691.7645263671875</v>
+        <v>2181.9248046875</v>
       </c>
       <c r="HR4" t="n">
-        <v>620.9009399414062</v>
+        <v>2069.42724609375</v>
       </c>
       <c r="HS4" t="n">
-        <v>629.456298828125</v>
+        <v>2099.947265625</v>
       </c>
       <c r="HT4" t="n">
-        <v>563.12158203125</v>
+        <v>2093.231689453125</v>
       </c>
       <c r="HU4" t="n">
-        <v>451.5267333984375</v>
+        <v>2068.24072265625</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2059.5625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2053.66259765625</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2047.843994140625</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2041.042236328125</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2021.443969726562</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2004.449462890625</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1993.703002929688</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1993.049438476562</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1997.553466796875</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1995.69873046875</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1991.896240234375</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1994.466064453125</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2016.831298828125</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2021.66796875</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2050.391845703125</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2075.430419921875</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2098.248291015625</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2028.79248046875</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2003.416015625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2011.875732421875</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1998.695190429688</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1999.706787109375</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1981.786254882812</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1993.190551757812</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2002.92138671875</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2020.224731445312</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2027.187255859375</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2011.489624023438</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2011.035400390625</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2019.036499023438</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2013.536499023438</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2043.384643554688</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2035.499389648438</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1996.366821289062</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1997.606323242188</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2031.714965820312</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2008.855834960938</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2062.600341796875</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2150.88427734375</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2140.849853515625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2099.053466796875</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2170.76611328125</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2123.858154296875</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2037.510375976562</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2045.782470703125</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2118.869140625</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2041.69580078125</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2092.030029296875</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2192.73828125</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2035.173950195312</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1976.73876953125</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1994.88232421875</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2028.558471679688</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2023.672607421875</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2029.128662109375</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2026.74169921875</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2028.974365234375</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2040.45947265625</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2114.0986328125</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2082.276611328125</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2230.696044921875</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2187.045166015625</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2212.321044921875</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2221.1572265625</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2211.72802734375</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2203.132568359375</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2174.9921875</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2186.936767578125</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2236.18701171875</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2253.34619140625</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2275.618896484375</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2327.9375</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2328.74365234375</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2373.334716796875</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2354.833984375</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2358.551513671875</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2369.47314453125</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2336.42529296875</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2300.555419921875</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2279.0849609375</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2251.389892578125</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2180.759033203125</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2072.95654296875</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>2226.458984375</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>2189.0009765625</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>2189.3486328125</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>2118.5419921875</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>2061.730712890625</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>1779.909790039062</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>1751.739501953125</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1722.056884765625</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1706.865234375</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1668.7236328125</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1633.051391601562</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1604.175415039062</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1565.66162109375</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1511.353759765625</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1460.376831054688</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1401.4013671875</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1357.59423828125</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1321.0322265625</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>1274.914794921875</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>1223.395385742188</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>1171.041259765625</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>1107.813232421875</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>1040.557861328125</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>967.4827880859375</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>917.5341796875</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>892.537841796875</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>865.9955444335938</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>846.7354736328125</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>836.8984375</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>849.3300170898438</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>974.5621948242188</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>1002.419494628906</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>1036.941528320312</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>1039.652221679688</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>1064.125</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>1120.145263671875</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>1094.614013671875</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>1005.465637207031</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>885.1439208984375</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>911.5281372070312</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>887.1500854492188</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>838.743896484375</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>794.6978759765625</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>641.74072265625</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>598.7896728515625</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>606.733154296875</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>808.3919677734375</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>855.6473388671875</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>910.1611328125</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>867.5069580078125</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>530.4658203125</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>503.3392639160156</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>455.0604553222656</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>455.0960083007812</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>458.828857421875</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>466.37451171875</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>469.3591918945312</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>479.5796813964844</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>491.8187866210938</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>502.5188903808594</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>518.1075439453125</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>513.9652709960938</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>506.4354858398438</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>546.5208129882812</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>475.238037109375</v>
       </c>
     </row>
   </sheetData>

--- a/right_hand_Data_Variable.xlsx
+++ b/right_hand_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>225.4841613769531</v>
+        <v>200.7770080566406</v>
       </c>
       <c r="B2" t="n">
-        <v>228.0764923095703</v>
+        <v>204.9889984130859</v>
       </c>
       <c r="C2" t="n">
-        <v>234.3710327148438</v>
+        <v>206.7779693603516</v>
       </c>
       <c r="D2" t="n">
-        <v>241.7300720214844</v>
+        <v>209.7644653320312</v>
       </c>
       <c r="E2" t="n">
-        <v>248.8617095947266</v>
+        <v>212.9922180175781</v>
       </c>
       <c r="F2" t="n">
-        <v>259.6064758300781</v>
+        <v>219.1995849609375</v>
       </c>
       <c r="G2" t="n">
-        <v>271.0653076171875</v>
+        <v>225.5770568847656</v>
       </c>
       <c r="H2" t="n">
-        <v>271.0401306152344</v>
+        <v>232.0847778320312</v>
       </c>
       <c r="I2" t="n">
-        <v>277.3369750976562</v>
+        <v>236.4996490478516</v>
       </c>
       <c r="J2" t="n">
-        <v>283.7568969726562</v>
+        <v>244.7386474609375</v>
       </c>
       <c r="K2" t="n">
-        <v>290.5305786132812</v>
+        <v>250.09716796875</v>
       </c>
       <c r="L2" t="n">
-        <v>302.6263122558594</v>
+        <v>257.2906799316406</v>
       </c>
       <c r="M2" t="n">
-        <v>316.1354064941406</v>
+        <v>230.9346771240234</v>
       </c>
       <c r="N2" t="n">
-        <v>316.72509765625</v>
+        <v>234.1343994140625</v>
       </c>
       <c r="O2" t="n">
-        <v>332.7271118164062</v>
+        <v>282.8583984375</v>
       </c>
       <c r="P2" t="n">
-        <v>338.9845581054688</v>
+        <v>282.7620239257812</v>
       </c>
       <c r="Q2" t="n">
-        <v>342.841552734375</v>
+        <v>283.1003112792969</v>
       </c>
       <c r="R2" t="n">
-        <v>345.1834411621094</v>
+        <v>283.2705383300781</v>
       </c>
       <c r="S2" t="n">
-        <v>345.1995849609375</v>
+        <v>283.1346740722656</v>
       </c>
       <c r="T2" t="n">
-        <v>345.7732543945312</v>
+        <v>283.53369140625</v>
       </c>
       <c r="U2" t="n">
-        <v>346.2938842773438</v>
+        <v>284.0927734375</v>
       </c>
       <c r="V2" t="n">
-        <v>346.9921875</v>
+        <v>284.7023620605469</v>
       </c>
       <c r="W2" t="n">
-        <v>346.3244323730469</v>
+        <v>285.2806396484375</v>
       </c>
       <c r="X2" t="n">
-        <v>340.9644165039062</v>
+        <v>286.195068359375</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.77099609375</v>
+        <v>287.4848937988281</v>
       </c>
       <c r="Z2" t="n">
-        <v>324.9945678710938</v>
+        <v>287.811279296875</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.7091674804688</v>
+        <v>287.8269653320312</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.4477233886719</v>
+        <v>286.4993896484375</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.3290710449219</v>
+        <v>283.6393127441406</v>
       </c>
       <c r="AD2" t="n">
-        <v>309.7168579101562</v>
+        <v>280.6946105957031</v>
       </c>
       <c r="AE2" t="n">
-        <v>309.0298461914062</v>
+        <v>277.8341369628906</v>
       </c>
       <c r="AF2" t="n">
-        <v>310.4975891113281</v>
+        <v>276.385498046875</v>
       </c>
       <c r="AG2" t="n">
-        <v>311.963134765625</v>
+        <v>276.0080871582031</v>
       </c>
       <c r="AH2" t="n">
-        <v>311.2443237304688</v>
+        <v>274.7754211425781</v>
       </c>
       <c r="AI2" t="n">
-        <v>309.8515014648438</v>
+        <v>274.4192199707031</v>
       </c>
       <c r="AJ2" t="n">
-        <v>307.5608825683594</v>
+        <v>274.2769470214844</v>
       </c>
       <c r="AK2" t="n">
-        <v>306.3314208984375</v>
+        <v>273.7857971191406</v>
       </c>
       <c r="AL2" t="n">
-        <v>302.5499877929688</v>
+        <v>273.4599609375</v>
       </c>
       <c r="AM2" t="n">
-        <v>298.8730163574219</v>
+        <v>272.8885498046875</v>
       </c>
       <c r="AN2" t="n">
-        <v>296.5485229492188</v>
+        <v>270.5342407226562</v>
       </c>
       <c r="AO2" t="n">
-        <v>291.9674987792969</v>
+        <v>266.7242126464844</v>
       </c>
       <c r="AP2" t="n">
-        <v>289.4815979003906</v>
+        <v>264.0564575195312</v>
       </c>
       <c r="AQ2" t="n">
-        <v>286.0761108398438</v>
+        <v>263.4920959472656</v>
       </c>
       <c r="AR2" t="n">
-        <v>285.5419921875</v>
+        <v>262.9580078125</v>
       </c>
       <c r="AS2" t="n">
-        <v>284.4132385253906</v>
+        <v>262.7355651855469</v>
       </c>
       <c r="AT2" t="n">
-        <v>282.7242736816406</v>
+        <v>262.80859375</v>
       </c>
       <c r="AU2" t="n">
-        <v>279.7017517089844</v>
+        <v>262.6806945800781</v>
       </c>
       <c r="AV2" t="n">
-        <v>276.0417785644531</v>
+        <v>262.471435546875</v>
       </c>
       <c r="AW2" t="n">
-        <v>272.0054321289062</v>
+        <v>262.1947326660156</v>
       </c>
       <c r="AX2" t="n">
-        <v>264.6751403808594</v>
+        <v>261.1735229492188</v>
       </c>
       <c r="AY2" t="n">
-        <v>255.4016265869141</v>
+        <v>256.8058776855469</v>
       </c>
       <c r="AZ2" t="n">
-        <v>245.4259948730469</v>
+        <v>246.2035522460938</v>
       </c>
       <c r="BA2" t="n">
-        <v>236.8051452636719</v>
+        <v>244.2510070800781</v>
       </c>
       <c r="BB2" t="n">
-        <v>226.928466796875</v>
+        <v>244.7224731445312</v>
       </c>
       <c r="BC2" t="n">
-        <v>218.6392517089844</v>
+        <v>295.897216796875</v>
       </c>
       <c r="BD2" t="n">
-        <v>209.5804138183594</v>
+        <v>295.9451293945312</v>
       </c>
       <c r="BE2" t="n">
-        <v>202.0242004394531</v>
+        <v>296.2880859375</v>
       </c>
       <c r="BF2" t="n">
-        <v>193.1320953369141</v>
+        <v>296.8583374023438</v>
       </c>
       <c r="BG2" t="n">
-        <v>188.8717956542969</v>
+        <v>297.4335021972656</v>
       </c>
       <c r="BH2" t="n">
-        <v>185.8430480957031</v>
+        <v>297.9013977050781</v>
       </c>
       <c r="BI2" t="n">
-        <v>183.0401458740234</v>
+        <v>298.1111450195312</v>
       </c>
       <c r="BJ2" t="n">
-        <v>179.4094848632812</v>
+        <v>298.1227722167969</v>
       </c>
       <c r="BK2" t="n">
-        <v>176.766357421875</v>
+        <v>297.9713134765625</v>
       </c>
       <c r="BL2" t="n">
-        <v>174.5775451660156</v>
+        <v>297.9778137207031</v>
       </c>
       <c r="BM2" t="n">
-        <v>172.1612548828125</v>
+        <v>297.9844360351562</v>
       </c>
       <c r="BN2" t="n">
-        <v>171.2970275878906</v>
+        <v>297.9365844726562</v>
       </c>
       <c r="BO2" t="n">
-        <v>168.6355285644531</v>
+        <v>297.8921813964844</v>
       </c>
       <c r="BP2" t="n">
-        <v>166.712158203125</v>
+        <v>297.8856811523438</v>
       </c>
       <c r="BQ2" t="n">
-        <v>163.1977844238281</v>
+        <v>297.8386535644531</v>
       </c>
       <c r="BR2" t="n">
-        <v>158.7586975097656</v>
+        <v>297.7790222167969</v>
       </c>
       <c r="BS2" t="n">
-        <v>154.286865234375</v>
+        <v>297.734130859375</v>
       </c>
       <c r="BT2" t="n">
-        <v>152.5161743164062</v>
+        <v>297.6923217773438</v>
       </c>
       <c r="BU2" t="n">
-        <v>150.3081512451172</v>
+        <v>297.8453369140625</v>
       </c>
       <c r="BV2" t="n">
-        <v>148.7561798095703</v>
+        <v>298.1386108398438</v>
       </c>
       <c r="BW2" t="n">
-        <v>146.5071105957031</v>
+        <v>258.4639282226562</v>
       </c>
       <c r="BX2" t="n">
-        <v>145.0188598632812</v>
+        <v>252.62744140625</v>
       </c>
       <c r="BY2" t="n">
-        <v>141.9007720947266</v>
+        <v>172.9382629394531</v>
       </c>
       <c r="BZ2" t="n">
-        <v>140.6461944580078</v>
+        <v>185.3856201171875</v>
       </c>
       <c r="CA2" t="n">
-        <v>140.7201843261719</v>
+        <v>188.3517608642578</v>
       </c>
       <c r="CB2" t="n">
-        <v>141.5141296386719</v>
+        <v>195.7330322265625</v>
       </c>
       <c r="CC2" t="n">
-        <v>143.1892547607422</v>
+        <v>202.8951721191406</v>
       </c>
       <c r="CD2" t="n">
-        <v>145.8052368164062</v>
+        <v>205.1045074462891</v>
       </c>
       <c r="CE2" t="n">
-        <v>156.2415008544922</v>
+        <v>209.68896484375</v>
       </c>
       <c r="CF2" t="n">
-        <v>160.4493103027344</v>
+        <v>213.1339263916016</v>
       </c>
       <c r="CG2" t="n">
-        <v>167.1908721923828</v>
+        <v>213.9837036132812</v>
       </c>
       <c r="CH2" t="n">
-        <v>173.5399017333984</v>
+        <v>213.6239929199219</v>
       </c>
       <c r="CI2" t="n">
-        <v>180.0403594970703</v>
+        <v>214.2818450927734</v>
       </c>
       <c r="CJ2" t="n">
-        <v>184.4852294921875</v>
+        <v>214.0408935546875</v>
       </c>
       <c r="CK2" t="n">
-        <v>187.9327087402344</v>
+        <v>213.4249114990234</v>
       </c>
       <c r="CL2" t="n">
-        <v>191.4392700195312</v>
+        <v>211.7876281738281</v>
       </c>
       <c r="CM2" t="n">
-        <v>195.5154113769531</v>
+        <v>209.854248046875</v>
       </c>
       <c r="CN2" t="n">
-        <v>199.0975952148438</v>
+        <v>212.0695190429688</v>
       </c>
       <c r="CO2" t="n">
-        <v>199.1352844238281</v>
+        <v>210.8830261230469</v>
       </c>
       <c r="CP2" t="n">
-        <v>198.4860534667969</v>
+        <v>206.1876831054688</v>
       </c>
       <c r="CQ2" t="n">
-        <v>197.7599945068359</v>
+        <v>205.5869750976562</v>
       </c>
       <c r="CR2" t="n">
-        <v>195.3619689941406</v>
+        <v>197.8591766357422</v>
       </c>
       <c r="CS2" t="n">
-        <v>179.4849853515625</v>
+        <v>193.0785980224609</v>
       </c>
       <c r="CT2" t="n">
-        <v>160.3300170898438</v>
+        <v>193.4668273925781</v>
       </c>
       <c r="CU2" t="n">
-        <v>152.4818725585938</v>
+        <v>191.0607147216797</v>
       </c>
       <c r="CV2" t="n">
-        <v>142.4472198486328</v>
+        <v>185.6820983886719</v>
       </c>
       <c r="CW2" t="n">
-        <v>135.9922637939453</v>
+        <v>182.5372314453125</v>
       </c>
       <c r="CX2" t="n">
-        <v>126.5464935302734</v>
+        <v>180.2461547851562</v>
       </c>
       <c r="CY2" t="n">
-        <v>125.9435348510742</v>
+        <v>180.5256958007812</v>
       </c>
       <c r="CZ2" t="n">
-        <v>121.4725189208984</v>
+        <v>181.9821472167969</v>
       </c>
       <c r="DA2" t="n">
-        <v>122.7079162597656</v>
+        <v>192.9795227050781</v>
       </c>
       <c r="DB2" t="n">
-        <v>124.9337310791016</v>
+        <v>212.489013671875</v>
       </c>
       <c r="DC2" t="n">
-        <v>126.81494140625</v>
+        <v>219.0847625732422</v>
       </c>
       <c r="DD2" t="n">
-        <v>126.5603637695312</v>
+        <v>211.3475341796875</v>
       </c>
       <c r="DE2" t="n">
-        <v>122.5535736083984</v>
+        <v>297.2184143066406</v>
       </c>
       <c r="DF2" t="n">
-        <v>120.1139221191406</v>
+        <v>297.8206176757812</v>
       </c>
       <c r="DG2" t="n">
-        <v>117.3838195800781</v>
+        <v>298.1876220703125</v>
       </c>
       <c r="DH2" t="n">
-        <v>104.2712554931641</v>
+        <v>299.0552368164062</v>
       </c>
       <c r="DI2" t="n">
-        <v>96.36448669433594</v>
+        <v>299.2088317871094</v>
       </c>
       <c r="DJ2" t="n">
-        <v>86.45498657226562</v>
+        <v>299.2495727539062</v>
       </c>
       <c r="DK2" t="n">
-        <v>74.15656280517578</v>
+        <v>245.9514617919922</v>
       </c>
       <c r="DL2" t="n">
-        <v>69.01051330566406</v>
+        <v>252.5716247558594</v>
       </c>
       <c r="DM2" t="n">
-        <v>69.83124542236328</v>
+        <v>256.870849609375</v>
       </c>
       <c r="DN2" t="n">
-        <v>68.54267120361328</v>
+        <v>274.2250061035156</v>
       </c>
       <c r="DO2" t="n">
-        <v>68.43256378173828</v>
+        <v>285.7295837402344</v>
       </c>
       <c r="DP2" t="n">
-        <v>74.87686920166016</v>
+        <v>288.5582580566406</v>
       </c>
       <c r="DQ2" t="n">
-        <v>99.32771301269531</v>
+        <v>288.9529418945312</v>
       </c>
       <c r="DR2" t="n">
-        <v>127.3591918945312</v>
+        <v>289.3766479492188</v>
       </c>
       <c r="DS2" t="n">
-        <v>150.0625305175781</v>
+        <v>290.2261047363281</v>
       </c>
       <c r="DT2" t="n">
-        <v>188.7026672363281</v>
+        <v>291.7824401855469</v>
       </c>
       <c r="DU2" t="n">
-        <v>219.820556640625</v>
+        <v>291.1846618652344</v>
       </c>
       <c r="DV2" t="n">
-        <v>227.9895935058594</v>
+        <v>288.6589660644531</v>
       </c>
       <c r="DW2" t="n">
-        <v>236.79736328125</v>
+        <v>286.0703735351562</v>
       </c>
       <c r="DX2" t="n">
-        <v>241.730224609375</v>
+        <v>282.0556030273438</v>
       </c>
       <c r="DY2" t="n">
-        <v>247.1244506835938</v>
+        <v>274.4302368164062</v>
       </c>
       <c r="DZ2" t="n">
-        <v>243.9698791503906</v>
+        <v>262.2179260253906</v>
       </c>
       <c r="EA2" t="n">
-        <v>241.5901489257812</v>
+        <v>259.0420532226562</v>
       </c>
       <c r="EB2" t="n">
-        <v>241.2590789794922</v>
+        <v>254.8526916503906</v>
       </c>
       <c r="EC2" t="n">
-        <v>237.953125</v>
+        <v>253.6241455078125</v>
       </c>
       <c r="ED2" t="n">
-        <v>233.8643188476562</v>
+        <v>251.8683166503906</v>
       </c>
       <c r="EE2" t="n">
-        <v>234.5645751953125</v>
+        <v>249.1422119140625</v>
       </c>
       <c r="EF2" t="n">
-        <v>247.4785614013672</v>
+        <v>248.0114898681641</v>
       </c>
       <c r="EG2" t="n">
-        <v>268.3309631347656</v>
+        <v>247.9867401123047</v>
       </c>
       <c r="EH2" t="n">
-        <v>279.0661315917969</v>
+        <v>244.3401184082031</v>
       </c>
       <c r="EI2" t="n">
-        <v>302.2908325195312</v>
+        <v>248.2521362304688</v>
       </c>
       <c r="EJ2" t="n">
-        <v>310.2106323242188</v>
+        <v>249.4207611083984</v>
       </c>
       <c r="EK2" t="n">
-        <v>337.4774475097656</v>
+        <v>240.9992370605469</v>
       </c>
       <c r="EL2" t="n">
-        <v>343.2918090820312</v>
+        <v>242.5570373535156</v>
       </c>
       <c r="EM2" t="n">
-        <v>350.864013671875</v>
+        <v>244.9902648925781</v>
       </c>
       <c r="EN2" t="n">
-        <v>352.9425354003906</v>
+        <v>243.3006591796875</v>
       </c>
       <c r="EO2" t="n">
-        <v>352.4754638671875</v>
+        <v>257.1170959472656</v>
       </c>
       <c r="EP2" t="n">
-        <v>352.0480651855469</v>
+        <v>264.1395568847656</v>
       </c>
       <c r="EQ2" t="n">
-        <v>351.0796508789062</v>
+        <v>272.3480224609375</v>
       </c>
       <c r="ER2" t="n">
-        <v>352.2911987304688</v>
+        <v>280.6258239746094</v>
       </c>
       <c r="ES2" t="n">
-        <v>360.285888671875</v>
+        <v>280.6494445800781</v>
       </c>
       <c r="ET2" t="n">
-        <v>367.0242309570312</v>
+        <v>280.6182861328125</v>
       </c>
       <c r="EU2" t="n">
-        <v>370.002197265625</v>
+        <v>280.7565612792969</v>
       </c>
       <c r="EV2" t="n">
-        <v>370.7947387695312</v>
+        <v>280.4522094726562</v>
       </c>
       <c r="EW2" t="n">
-        <v>382.7362670898438</v>
+        <v>279.6288146972656</v>
       </c>
       <c r="EX2" t="n">
-        <v>394.3302001953125</v>
+        <v>276.0351257324219</v>
       </c>
       <c r="EY2" t="n">
-        <v>397.8556518554688</v>
+        <v>272.9029846191406</v>
       </c>
       <c r="EZ2" t="n">
-        <v>400.9672546386719</v>
+        <v>267.928955078125</v>
       </c>
       <c r="FA2" t="n">
-        <v>405.2879333496094</v>
+        <v>267.1019592285156</v>
       </c>
       <c r="FB2" t="n">
-        <v>408.318115234375</v>
+        <v>265.749267578125</v>
       </c>
       <c r="FC2" t="n">
-        <v>409.0901184082031</v>
+        <v>264.8014526367188</v>
       </c>
       <c r="FD2" t="n">
-        <v>404.5099487304688</v>
+        <v>263.1916198730469</v>
       </c>
       <c r="FE2" t="n">
-        <v>403.3712768554688</v>
+        <v>262.6799011230469</v>
       </c>
       <c r="FF2" t="n">
-        <v>400.3317565917969</v>
+        <v>267.7644653320312</v>
       </c>
       <c r="FG2" t="n">
-        <v>394.7457885742188</v>
+        <v>270.8557434082031</v>
       </c>
       <c r="FH2" t="n">
-        <v>390.1710205078125</v>
+        <v>274.1853942871094</v>
       </c>
       <c r="FI2" t="n">
-        <v>385.3936157226562</v>
+        <v>274.9503173828125</v>
       </c>
       <c r="FJ2" t="n">
-        <v>380.2974853515625</v>
+        <v>278.2117004394531</v>
       </c>
       <c r="FK2" t="n">
-        <v>371.9688415527344</v>
+        <v>278.5431518554688</v>
       </c>
       <c r="FL2" t="n">
-        <v>377.0547485351562</v>
+        <v>279.0636596679688</v>
       </c>
       <c r="FM2" t="n">
-        <v>380.518798828125</v>
+        <v>284.0880737304688</v>
       </c>
       <c r="FN2" t="n">
-        <v>383.5704345703125</v>
+        <v>285.648193359375</v>
       </c>
       <c r="FO2" t="n">
-        <v>384.0332336425781</v>
+        <v>285.9330749511719</v>
       </c>
       <c r="FP2" t="n">
-        <v>384.872802734375</v>
+        <v>283.3433532714844</v>
       </c>
       <c r="FQ2" t="n">
-        <v>384.3624572753906</v>
+        <v>279.7261962890625</v>
       </c>
       <c r="FR2" t="n">
-        <v>376.2066650390625</v>
+        <v>267.5015258789062</v>
       </c>
       <c r="FS2" t="n">
-        <v>376.783447265625</v>
+        <v>264.10009765625</v>
       </c>
       <c r="FT2" t="n">
-        <v>375.1566162109375</v>
+        <v>250.5886535644531</v>
       </c>
       <c r="FU2" t="n">
-        <v>372.976806640625</v>
+        <v>248.4964752197266</v>
       </c>
       <c r="FV2" t="n">
-        <v>367.0015869140625</v>
+        <v>220.8238220214844</v>
       </c>
       <c r="FW2" t="n">
-        <v>361.32080078125</v>
+        <v>133.1771850585938</v>
       </c>
       <c r="FX2" t="n">
-        <v>360.5594482421875</v>
+        <v>117.9969711303711</v>
       </c>
       <c r="FY2" t="n">
-        <v>358.5830383300781</v>
+        <v>94.60144805908203</v>
       </c>
       <c r="FZ2" t="n">
-        <v>353.5153503417969</v>
+        <v>111.0511932373047</v>
       </c>
       <c r="GA2" t="n">
-        <v>351.3406372070312</v>
+        <v>213.7869567871094</v>
       </c>
       <c r="GB2" t="n">
-        <v>351.277099609375</v>
+        <v>205.782470703125</v>
       </c>
       <c r="GC2" t="n">
-        <v>349.398681640625</v>
+        <v>204.0946044921875</v>
       </c>
       <c r="GD2" t="n">
-        <v>354.5047607421875</v>
+        <v>79.19664001464844</v>
       </c>
       <c r="GE2" t="n">
-        <v>347.0774841308594</v>
+        <v>76.42489624023438</v>
       </c>
       <c r="GF2" t="n">
-        <v>346.3040771484375</v>
+        <v>77.08712768554688</v>
       </c>
       <c r="GG2" t="n">
-        <v>342.9772338867188</v>
+        <v>77.20063018798828</v>
       </c>
       <c r="GH2" t="n">
-        <v>348.9842224121094</v>
+        <v>72.63590240478516</v>
       </c>
       <c r="GI2" t="n">
-        <v>348.9003295898438</v>
+        <v>67.53741455078125</v>
       </c>
       <c r="GJ2" t="n">
-        <v>341.9068908691406</v>
+        <v>67.60554504394531</v>
       </c>
       <c r="GK2" t="n">
-        <v>340.9024658203125</v>
+        <v>62.89902114868164</v>
       </c>
       <c r="GL2" t="n">
-        <v>337.2155151367188</v>
+        <v>65.42702484130859</v>
       </c>
       <c r="GM2" t="n">
-        <v>333.464599609375</v>
+        <v>75.99131011962891</v>
       </c>
       <c r="GN2" t="n">
-        <v>332.7073974609375</v>
+        <v>84.13223266601562</v>
       </c>
       <c r="GO2" t="n">
-        <v>328.1595153808594</v>
+        <v>103.8619384765625</v>
       </c>
       <c r="GP2" t="n">
-        <v>322.62255859375</v>
+        <v>109.7918548583984</v>
       </c>
       <c r="GQ2" t="n">
-        <v>320.4641418457031</v>
+        <v>113.5729827880859</v>
       </c>
       <c r="GR2" t="n">
-        <v>317.8952331542969</v>
+        <v>115.0233306884766</v>
       </c>
       <c r="GS2" t="n">
-        <v>318.5377197265625</v>
+        <v>113.8360595703125</v>
       </c>
       <c r="GT2" t="n">
-        <v>319.3565063476562</v>
+        <v>112.8877258300781</v>
       </c>
       <c r="GU2" t="n">
-        <v>315.2667236328125</v>
+        <v>111.5587921142578</v>
       </c>
       <c r="GV2" t="n">
-        <v>313.6464538574219</v>
+        <v>100.3732757568359</v>
       </c>
       <c r="GW2" t="n">
-        <v>309.0341186523438</v>
+        <v>80.81761169433594</v>
       </c>
       <c r="GX2" t="n">
-        <v>312.7627258300781</v>
+        <v>61.56596755981445</v>
       </c>
       <c r="GY2" t="n">
-        <v>309.589111328125</v>
+        <v>47.24095916748047</v>
       </c>
       <c r="GZ2" t="n">
-        <v>309.1410827636719</v>
+        <v>18.06635093688965</v>
       </c>
       <c r="HA2" t="n">
-        <v>309.6117553710938</v>
+        <v>-15.21183586120605</v>
       </c>
       <c r="HB2" t="n">
-        <v>312.8341369628906</v>
+        <v>-10.79356670379639</v>
       </c>
       <c r="HC2" t="n">
-        <v>312.73974609375</v>
+        <v>-2.093981027603149</v>
       </c>
       <c r="HD2" t="n">
-        <v>308.125244140625</v>
+        <v>-0.4837818443775177</v>
       </c>
       <c r="HE2" t="n">
-        <v>311.4552917480469</v>
+        <v>-13.29618549346924</v>
       </c>
       <c r="HF2" t="n">
-        <v>312.2132873535156</v>
+        <v>41.48720550537109</v>
       </c>
       <c r="HG2" t="n">
-        <v>307.9112243652344</v>
+        <v>47.72255706787109</v>
       </c>
       <c r="HH2" t="n">
-        <v>306.3962097167969</v>
+        <v>43.201171875</v>
       </c>
       <c r="HI2" t="n">
-        <v>307.8039855957031</v>
+        <v>33.91808700561523</v>
       </c>
       <c r="HJ2" t="n">
-        <v>313.956298828125</v>
+        <v>26.55857467651367</v>
       </c>
       <c r="HK2" t="n">
-        <v>310.8190002441406</v>
+        <v>29.14184951782227</v>
       </c>
       <c r="HL2" t="n">
-        <v>321.1324768066406</v>
+        <v>30.62124061584473</v>
       </c>
       <c r="HM2" t="n">
-        <v>319.9577331542969</v>
+        <v>30.79107666015625</v>
       </c>
       <c r="HN2" t="n">
-        <v>317.0829162597656</v>
+        <v>50.56156158447266</v>
       </c>
       <c r="HO2" t="n">
-        <v>328.3516235351562</v>
+        <v>45.74726867675781</v>
       </c>
       <c r="HP2" t="n">
-        <v>342.2448120117188</v>
+        <v>51.19625854492188</v>
       </c>
       <c r="HQ2" t="n">
-        <v>347.4609069824219</v>
+        <v>50.85887145996094</v>
       </c>
       <c r="HR2" t="n">
-        <v>368.1234436035156</v>
+        <v>19.62528228759766</v>
       </c>
       <c r="HS2" t="n">
-        <v>367.4658813476562</v>
+        <v>22.95150375366211</v>
       </c>
       <c r="HT2" t="n">
-        <v>371.099853515625</v>
+        <v>35.44614028930664</v>
       </c>
       <c r="HU2" t="n">
-        <v>375.4985046386719</v>
+        <v>36.73942947387695</v>
       </c>
       <c r="HV2" t="n">
-        <v>379.3902587890625</v>
+        <v>60.82109451293945</v>
       </c>
       <c r="HW2" t="n">
-        <v>378.9116821289062</v>
+        <v>93.69017791748047</v>
       </c>
       <c r="HX2" t="n">
-        <v>378.7938232421875</v>
+        <v>117.4550170898438</v>
       </c>
       <c r="HY2" t="n">
-        <v>378.7858276367188</v>
+        <v>145.9535217285156</v>
       </c>
       <c r="HZ2" t="n">
-        <v>382.4375610351562</v>
+        <v>167.8174133300781</v>
       </c>
       <c r="IA2" t="n">
-        <v>385.7845458984375</v>
+        <v>191.4479064941406</v>
       </c>
       <c r="IB2" t="n">
-        <v>385.9488525390625</v>
+        <v>204.7439270019531</v>
       </c>
       <c r="IC2" t="n">
-        <v>386.5015258789062</v>
+        <v>217.0005493164062</v>
       </c>
       <c r="ID2" t="n">
-        <v>386.0995178222656</v>
+        <v>227.9146423339844</v>
       </c>
       <c r="IE2" t="n">
-        <v>385.3218078613281</v>
+        <v>232.6811981201172</v>
       </c>
       <c r="IF2" t="n">
-        <v>383.810302734375</v>
+        <v>238.4900054931641</v>
       </c>
       <c r="IG2" t="n">
-        <v>377.1939086914062</v>
+        <v>241.1458129882812</v>
       </c>
       <c r="IH2" t="n">
-        <v>371.8626708984375</v>
+        <v>240.2540435791016</v>
       </c>
       <c r="II2" t="n">
-        <v>365.7592468261719</v>
+        <v>238.4690704345703</v>
       </c>
       <c r="IJ2" t="n">
-        <v>356.8658447265625</v>
+        <v>232.8492431640625</v>
       </c>
       <c r="IK2" t="n">
-        <v>340.459228515625</v>
+        <v>223.9734039306641</v>
       </c>
       <c r="IL2" t="n">
-        <v>335.5828857421875</v>
+        <v>212.2338562011719</v>
       </c>
       <c r="IM2" t="n">
-        <v>328.2487487792969</v>
+        <v>203.0455932617188</v>
       </c>
       <c r="IN2" t="n">
-        <v>315.0196228027344</v>
+        <v>186.5268249511719</v>
       </c>
       <c r="IO2" t="n">
-        <v>317.6484985351562</v>
+        <v>186.5159912109375</v>
       </c>
       <c r="IP2" t="n">
-        <v>313.3197326660156</v>
+        <v>269.7264709472656</v>
       </c>
       <c r="IQ2" t="n">
-        <v>314.8073425292969</v>
+        <v>125.1535949707031</v>
       </c>
       <c r="IR2" t="n">
-        <v>312.3621520996094</v>
+        <v>187.4495849609375</v>
       </c>
       <c r="IS2" t="n">
-        <v>315.0252685546875</v>
+        <v>193.6077728271484</v>
       </c>
       <c r="IT2" t="n">
-        <v>314.7583923339844</v>
+        <v>202.2195281982422</v>
       </c>
       <c r="IU2" t="n">
-        <v>314.5630798339844</v>
+        <v>198.3940277099609</v>
       </c>
       <c r="IV2" t="n">
-        <v>315.2225646972656</v>
+        <v>198.925048828125</v>
       </c>
       <c r="IW2" t="n">
-        <v>312.6128234863281</v>
+        <v>214.7562255859375</v>
       </c>
       <c r="IX2" t="n">
-        <v>312.458740234375</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>312.7023315429688</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>310.1922912597656</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>315.5302124023438</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>313.9447326660156</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>315.1218872070312</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>315.3785705566406</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>321.0260314941406</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>317.310302734375</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>316.11376953125</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>315.9629211425781</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>328.49951171875</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>335.8938903808594</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>335.6854858398438</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>345.3779296875</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>359.501708984375</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>359.760986328125</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>353.0115356445312</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>363.4488525390625</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>358.5526123046875</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>351.3385314941406</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>361.0816040039062</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>371.6941833496094</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>370.3134765625</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>371.3465881347656</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>371.5928955078125</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>371.222900390625</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>371.2394409179688</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>371.1141357421875</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>370.5932006835938</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>356.5484008789062</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>342.4843139648438</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>329.7085266113281</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>323.078125</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>322.0641784667969</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>321.09228515625</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>323.0158996582031</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>323.1576843261719</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>323.1608276367188</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>322.4897766113281</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>312.340087890625</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>307.2004089355469</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>298.9431457519531</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>290.6506652832031</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>306.1494140625</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>296.412353515625</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>311.0765991210938</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>319.743408203125</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>318.9119262695312</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>319.14892578125</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>311.8366394042969</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>325.8815307617188</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>309.61279296875</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>312.6288757324219</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>318.8513488769531</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>340.2142333984375</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>344.3329467773438</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>350.4630126953125</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>367.32568359375</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>372.5848388671875</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>372.63037109375</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>370.8280029296875</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>368.7992858886719</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>365.1184692382812</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>366.3651123046875</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>372.1629333496094</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>375.6250610351562</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>377.9110107421875</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>380.3668823242188</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>382.01220703125</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>383.6842041015625</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>368.6649169921875</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>363.5469970703125</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>362.6220703125</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>367.3992309570312</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>359.2709350585938</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>368.68603515625</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>380.8585205078125</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>362.3452453613281</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>393.6398620605469</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>383.016845703125</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>357.09375</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>335.7324829101562</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>317.5265808105469</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>294.6690979003906</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>219.6283874511719</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>222.2247619628906</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>245.8832550048828</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>262.0679016113281</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>257.5353698730469</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>238.0398406982422</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>242.9749450683594</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>246.0720520019531</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>237.97802734375</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>261.643798828125</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>259.6936340332031</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>252.08203125</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>254.4311370849609</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>207.6591186523438</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>201.1396026611328</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>223.3440551757812</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>296.6727905273438</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>280.2823791503906</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>229.6265869140625</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>212.2033996582031</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>176.4315948486328</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>136.0536041259766</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>110.6070098876953</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>112.3484878540039</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>140.025634765625</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>165.7002563476562</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>165.7725830078125</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>164.6250610351562</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>184.59375</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>214.5885925292969</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>217.8953247070312</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>166.6284484863281</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>158.2879486083984</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>165.1831359863281</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>140.1188201904297</v>
+        <v>285.7347106933594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>340.0116882324219</v>
+        <v>490.6444396972656</v>
       </c>
       <c r="B3" t="n">
-        <v>354.6170349121094</v>
+        <v>481.8421020507812</v>
       </c>
       <c r="C3" t="n">
-        <v>363.9200439453125</v>
+        <v>478.2437438964844</v>
       </c>
       <c r="D3" t="n">
-        <v>371.67333984375</v>
+        <v>471.6719665527344</v>
       </c>
       <c r="E3" t="n">
-        <v>385.153564453125</v>
+        <v>468.7107849121094</v>
       </c>
       <c r="F3" t="n">
-        <v>396.0735473632812</v>
+        <v>465.5941162109375</v>
       </c>
       <c r="G3" t="n">
-        <v>405.1763610839844</v>
+        <v>462.7225952148438</v>
       </c>
       <c r="H3" t="n">
-        <v>413.6983337402344</v>
+        <v>455.94482421875</v>
       </c>
       <c r="I3" t="n">
-        <v>420.0265197753906</v>
+        <v>452.0243835449219</v>
       </c>
       <c r="J3" t="n">
-        <v>423.4559936523438</v>
+        <v>450.2310791015625</v>
       </c>
       <c r="K3" t="n">
-        <v>420.1991271972656</v>
+        <v>446.3912353515625</v>
       </c>
       <c r="L3" t="n">
-        <v>411.5860900878906</v>
+        <v>445.3392333984375</v>
       </c>
       <c r="M3" t="n">
-        <v>385.3246154785156</v>
+        <v>430.0875549316406</v>
       </c>
       <c r="N3" t="n">
-        <v>376.2809448242188</v>
+        <v>428.5148315429688</v>
       </c>
       <c r="O3" t="n">
-        <v>361.2106018066406</v>
+        <v>411.8057250976562</v>
       </c>
       <c r="P3" t="n">
-        <v>354.1294860839844</v>
+        <v>409.1009826660156</v>
       </c>
       <c r="Q3" t="n">
-        <v>350.2711486816406</v>
+        <v>408.3906860351562</v>
       </c>
       <c r="R3" t="n">
-        <v>345.2439575195312</v>
+        <v>410.4650268554688</v>
       </c>
       <c r="S3" t="n">
-        <v>344.2698669433594</v>
+        <v>410.1460876464844</v>
       </c>
       <c r="T3" t="n">
-        <v>344.3267211914062</v>
+        <v>410.9746704101562</v>
       </c>
       <c r="U3" t="n">
-        <v>340.7849731445312</v>
+        <v>410.6215515136719</v>
       </c>
       <c r="V3" t="n">
-        <v>342.3168029785156</v>
+        <v>408.9466247558594</v>
       </c>
       <c r="W3" t="n">
-        <v>345.1407165527344</v>
+        <v>407.969970703125</v>
       </c>
       <c r="X3" t="n">
-        <v>348.1722106933594</v>
+        <v>406.3953247070312</v>
       </c>
       <c r="Y3" t="n">
-        <v>358.7094116210938</v>
+        <v>405.2937622070312</v>
       </c>
       <c r="Z3" t="n">
-        <v>366.4597473144531</v>
+        <v>403.9788818359375</v>
       </c>
       <c r="AA3" t="n">
-        <v>370.5927124023438</v>
+        <v>403.9550476074219</v>
       </c>
       <c r="AB3" t="n">
-        <v>377.3327026367188</v>
+        <v>402.4604187011719</v>
       </c>
       <c r="AC3" t="n">
-        <v>382.3304443359375</v>
+        <v>400.0283813476562</v>
       </c>
       <c r="AD3" t="n">
-        <v>385.9901428222656</v>
+        <v>397.5195922851562</v>
       </c>
       <c r="AE3" t="n">
-        <v>387.5996398925781</v>
+        <v>398.3235473632812</v>
       </c>
       <c r="AF3" t="n">
-        <v>385.8492736816406</v>
+        <v>400.3179931640625</v>
       </c>
       <c r="AG3" t="n">
-        <v>385.1298217773438</v>
+        <v>401.5489196777344</v>
       </c>
       <c r="AH3" t="n">
-        <v>384.6333618164062</v>
+        <v>402.1932983398438</v>
       </c>
       <c r="AI3" t="n">
-        <v>380.3249816894531</v>
+        <v>402.7120361328125</v>
       </c>
       <c r="AJ3" t="n">
-        <v>376.4156494140625</v>
+        <v>401.2034912109375</v>
       </c>
       <c r="AK3" t="n">
-        <v>375.523193359375</v>
+        <v>400.4109497070312</v>
       </c>
       <c r="AL3" t="n">
-        <v>376.2753295898438</v>
+        <v>401.8038635253906</v>
       </c>
       <c r="AM3" t="n">
-        <v>375.6940612792969</v>
+        <v>403.0581359863281</v>
       </c>
       <c r="AN3" t="n">
-        <v>377.9235229492188</v>
+        <v>403.3779296875</v>
       </c>
       <c r="AO3" t="n">
-        <v>379.5215759277344</v>
+        <v>403.2144470214844</v>
       </c>
       <c r="AP3" t="n">
-        <v>381.9014282226562</v>
+        <v>403.1643981933594</v>
       </c>
       <c r="AQ3" t="n">
-        <v>382.7341918945312</v>
+        <v>402.4201354980469</v>
       </c>
       <c r="AR3" t="n">
-        <v>382.9593200683594</v>
+        <v>401.2846374511719</v>
       </c>
       <c r="AS3" t="n">
-        <v>383.4497680664062</v>
+        <v>400.3260498046875</v>
       </c>
       <c r="AT3" t="n">
-        <v>384.1150512695312</v>
+        <v>400.0661010742188</v>
       </c>
       <c r="AU3" t="n">
-        <v>385.0129699707031</v>
+        <v>399.4406127929688</v>
       </c>
       <c r="AV3" t="n">
-        <v>384.5847778320312</v>
+        <v>398.8610229492188</v>
       </c>
       <c r="AW3" t="n">
-        <v>383.2781982421875</v>
+        <v>398.0964050292969</v>
       </c>
       <c r="AX3" t="n">
-        <v>380.4136352539062</v>
+        <v>398.3224792480469</v>
       </c>
       <c r="AY3" t="n">
-        <v>376.9747009277344</v>
+        <v>396.433837890625</v>
       </c>
       <c r="AZ3" t="n">
-        <v>372.6984252929688</v>
+        <v>390.5862731933594</v>
       </c>
       <c r="BA3" t="n">
-        <v>368.8194885253906</v>
+        <v>386.7251892089844</v>
       </c>
       <c r="BB3" t="n">
-        <v>364.1549987792969</v>
+        <v>384.0369873046875</v>
       </c>
       <c r="BC3" t="n">
-        <v>359.0003356933594</v>
+        <v>408.7136535644531</v>
       </c>
       <c r="BD3" t="n">
-        <v>353.4092102050781</v>
+        <v>407.6582641601562</v>
       </c>
       <c r="BE3" t="n">
-        <v>348.9478759765625</v>
+        <v>406.5461120605469</v>
       </c>
       <c r="BF3" t="n">
-        <v>343.075439453125</v>
+        <v>405.4333801269531</v>
       </c>
       <c r="BG3" t="n">
-        <v>338.9530944824219</v>
+        <v>404.281005859375</v>
       </c>
       <c r="BH3" t="n">
-        <v>336.3543090820312</v>
+        <v>403.5724792480469</v>
       </c>
       <c r="BI3" t="n">
-        <v>334.5413513183594</v>
+        <v>403.0223999023438</v>
       </c>
       <c r="BJ3" t="n">
-        <v>334.1516418457031</v>
+        <v>402.4353942871094</v>
       </c>
       <c r="BK3" t="n">
-        <v>334.8403625488281</v>
+        <v>401.852294921875</v>
       </c>
       <c r="BL3" t="n">
-        <v>337.2766418457031</v>
+        <v>401.8619079589844</v>
       </c>
       <c r="BM3" t="n">
-        <v>340.5481262207031</v>
+        <v>401.9158020019531</v>
       </c>
       <c r="BN3" t="n">
-        <v>342.7057189941406</v>
+        <v>401.9798583984375</v>
       </c>
       <c r="BO3" t="n">
-        <v>346.7747192382812</v>
+        <v>402.1405334472656</v>
       </c>
       <c r="BP3" t="n">
-        <v>349.0185546875</v>
+        <v>402.2353515625</v>
       </c>
       <c r="BQ3" t="n">
-        <v>350.1448974609375</v>
+        <v>402.3563842773438</v>
       </c>
       <c r="BR3" t="n">
-        <v>352.1417541503906</v>
+        <v>402.4948425292969</v>
       </c>
       <c r="BS3" t="n">
-        <v>353.1997375488281</v>
+        <v>402.6411437988281</v>
       </c>
       <c r="BT3" t="n">
-        <v>354.267578125</v>
+        <v>402.7701721191406</v>
       </c>
       <c r="BU3" t="n">
-        <v>355.3074645996094</v>
+        <v>403.1285705566406</v>
       </c>
       <c r="BV3" t="n">
-        <v>355.520751953125</v>
+        <v>403.570068359375</v>
       </c>
       <c r="BW3" t="n">
-        <v>355.5603332519531</v>
+        <v>390.1961669921875</v>
       </c>
       <c r="BX3" t="n">
-        <v>355.6852416992188</v>
+        <v>383.0820007324219</v>
       </c>
       <c r="BY3" t="n">
-        <v>354.8397216796875</v>
+        <v>282.3721008300781</v>
       </c>
       <c r="BZ3" t="n">
-        <v>354.6539306640625</v>
+        <v>270.7422180175781</v>
       </c>
       <c r="CA3" t="n">
-        <v>354.6858215332031</v>
+        <v>257.2547302246094</v>
       </c>
       <c r="CB3" t="n">
-        <v>354.7802429199219</v>
+        <v>249.8988189697266</v>
       </c>
       <c r="CC3" t="n">
-        <v>354.3873901367188</v>
+        <v>239.4956207275391</v>
       </c>
       <c r="CD3" t="n">
-        <v>352.154296875</v>
+        <v>233.2120819091797</v>
       </c>
       <c r="CE3" t="n">
-        <v>353.5853881835938</v>
+        <v>225.6255187988281</v>
       </c>
       <c r="CF3" t="n">
-        <v>353.8589782714844</v>
+        <v>221.623046875</v>
       </c>
       <c r="CG3" t="n">
-        <v>355.3753662109375</v>
+        <v>218.3931274414062</v>
       </c>
       <c r="CH3" t="n">
-        <v>357.2851867675781</v>
+        <v>215.7247619628906</v>
       </c>
       <c r="CI3" t="n">
-        <v>357.3058166503906</v>
+        <v>215.2633972167969</v>
       </c>
       <c r="CJ3" t="n">
-        <v>359.1814575195312</v>
+        <v>215.3584899902344</v>
       </c>
       <c r="CK3" t="n">
-        <v>359.1439208984375</v>
+        <v>216.0796813964844</v>
       </c>
       <c r="CL3" t="n">
-        <v>358.8390197753906</v>
+        <v>217.6535949707031</v>
       </c>
       <c r="CM3" t="n">
-        <v>359.3607482910156</v>
+        <v>220.6879272460938</v>
       </c>
       <c r="CN3" t="n">
-        <v>354.2145385742188</v>
+        <v>222.6403961181641</v>
       </c>
       <c r="CO3" t="n">
-        <v>351.5616760253906</v>
+        <v>225.3603363037109</v>
       </c>
       <c r="CP3" t="n">
-        <v>347.4270629882812</v>
+        <v>227.8057250976562</v>
       </c>
       <c r="CQ3" t="n">
-        <v>342.976318359375</v>
+        <v>230.1854400634766</v>
       </c>
       <c r="CR3" t="n">
-        <v>337.6072692871094</v>
+        <v>236.0960083007812</v>
       </c>
       <c r="CS3" t="n">
-        <v>318.2684326171875</v>
+        <v>240.3857269287109</v>
       </c>
       <c r="CT3" t="n">
-        <v>298.3840026855469</v>
+        <v>242.7203521728516</v>
       </c>
       <c r="CU3" t="n">
-        <v>285.4348449707031</v>
+        <v>249.1973266601562</v>
       </c>
       <c r="CV3" t="n">
-        <v>272.5285339355469</v>
+        <v>258.5223388671875</v>
       </c>
       <c r="CW3" t="n">
-        <v>260.5694885253906</v>
+        <v>264.9546203613281</v>
       </c>
       <c r="CX3" t="n">
-        <v>225.0200042724609</v>
+        <v>274.9410095214844</v>
       </c>
       <c r="CY3" t="n">
-        <v>207.4919586181641</v>
+        <v>296.8534240722656</v>
       </c>
       <c r="CZ3" t="n">
-        <v>178.6047973632812</v>
+        <v>303.9300231933594</v>
       </c>
       <c r="DA3" t="n">
-        <v>168.8676910400391</v>
+        <v>295.36279296875</v>
       </c>
       <c r="DB3" t="n">
-        <v>159.9900207519531</v>
+        <v>282.6419067382812</v>
       </c>
       <c r="DC3" t="n">
-        <v>145.6705780029297</v>
+        <v>279.7923278808594</v>
       </c>
       <c r="DD3" t="n">
-        <v>135.7737579345703</v>
+        <v>273.3085327148438</v>
       </c>
       <c r="DE3" t="n">
-        <v>125.8542556762695</v>
+        <v>403.6988220214844</v>
       </c>
       <c r="DF3" t="n">
-        <v>119.8822937011719</v>
+        <v>404.9817199707031</v>
       </c>
       <c r="DG3" t="n">
-        <v>119.1282424926758</v>
+        <v>405.34765625</v>
       </c>
       <c r="DH3" t="n">
-        <v>123.5241394042969</v>
+        <v>406.4375610351562</v>
       </c>
       <c r="DI3" t="n">
-        <v>132.2443389892578</v>
+        <v>406.5233154296875</v>
       </c>
       <c r="DJ3" t="n">
-        <v>154.2572021484375</v>
+        <v>407.0597229003906</v>
       </c>
       <c r="DK3" t="n">
-        <v>175.1084594726562</v>
+        <v>405.2088317871094</v>
       </c>
       <c r="DL3" t="n">
-        <v>186.0848236083984</v>
+        <v>408.2851257324219</v>
       </c>
       <c r="DM3" t="n">
-        <v>199.8521575927734</v>
+        <v>395.2743530273438</v>
       </c>
       <c r="DN3" t="n">
-        <v>218.6215057373047</v>
+        <v>400.0166625976562</v>
       </c>
       <c r="DO3" t="n">
-        <v>243.0390014648438</v>
+        <v>398.9085388183594</v>
       </c>
       <c r="DP3" t="n">
-        <v>276.71142578125</v>
+        <v>400.2966613769531</v>
       </c>
       <c r="DQ3" t="n">
-        <v>320.1241455078125</v>
+        <v>399.7053833007812</v>
       </c>
       <c r="DR3" t="n">
-        <v>351.8865661621094</v>
+        <v>399.1297912597656</v>
       </c>
       <c r="DS3" t="n">
-        <v>365.7603759765625</v>
+        <v>397.2472839355469</v>
       </c>
       <c r="DT3" t="n">
-        <v>384.4348754882812</v>
+        <v>393.9884948730469</v>
       </c>
       <c r="DU3" t="n">
-        <v>391.1056213378906</v>
+        <v>394.2776489257812</v>
       </c>
       <c r="DV3" t="n">
-        <v>393.6270141601562</v>
+        <v>394.7657470703125</v>
       </c>
       <c r="DW3" t="n">
-        <v>394.5982666015625</v>
+        <v>394.9241943359375</v>
       </c>
       <c r="DX3" t="n">
-        <v>392.6096801757812</v>
+        <v>395.00732421875</v>
       </c>
       <c r="DY3" t="n">
-        <v>391.4723205566406</v>
+        <v>394.0357971191406</v>
       </c>
       <c r="DZ3" t="n">
-        <v>385.6049194335938</v>
+        <v>395.6545715332031</v>
       </c>
       <c r="EA3" t="n">
-        <v>382.6788940429688</v>
+        <v>399.138916015625</v>
       </c>
       <c r="EB3" t="n">
-        <v>376.7477416992188</v>
+        <v>399.2559814453125</v>
       </c>
       <c r="EC3" t="n">
-        <v>375.5080261230469</v>
+        <v>398.4058532714844</v>
       </c>
       <c r="ED3" t="n">
-        <v>374.9704284667969</v>
+        <v>395.54345703125</v>
       </c>
       <c r="EE3" t="n">
-        <v>370.9506225585938</v>
+        <v>392.5674743652344</v>
       </c>
       <c r="EF3" t="n">
-        <v>368.9230346679688</v>
+        <v>389.6341247558594</v>
       </c>
       <c r="EG3" t="n">
-        <v>367.6514282226562</v>
+        <v>389.8852844238281</v>
       </c>
       <c r="EH3" t="n">
-        <v>369.6882019042969</v>
+        <v>402.9601745605469</v>
       </c>
       <c r="EI3" t="n">
-        <v>376.4292297363281</v>
+        <v>404.50830078125</v>
       </c>
       <c r="EJ3" t="n">
-        <v>374.2043151855469</v>
+        <v>405.5968933105469</v>
       </c>
       <c r="EK3" t="n">
-        <v>372.2431640625</v>
+        <v>405.4765930175781</v>
       </c>
       <c r="EL3" t="n">
-        <v>368.2231140136719</v>
+        <v>404.8183288574219</v>
       </c>
       <c r="EM3" t="n">
-        <v>366.2540588378906</v>
+        <v>405.1103210449219</v>
       </c>
       <c r="EN3" t="n">
-        <v>366.3028869628906</v>
+        <v>402.7261047363281</v>
       </c>
       <c r="EO3" t="n">
-        <v>360.0272827148438</v>
+        <v>395.3750305175781</v>
       </c>
       <c r="EP3" t="n">
-        <v>359.6711730957031</v>
+        <v>397.7731628417969</v>
       </c>
       <c r="EQ3" t="n">
-        <v>362.3621826171875</v>
+        <v>399.6689147949219</v>
       </c>
       <c r="ER3" t="n">
-        <v>362.6338195800781</v>
+        <v>402.7723999023438</v>
       </c>
       <c r="ES3" t="n">
-        <v>359.6242370605469</v>
+        <v>403.835693359375</v>
       </c>
       <c r="ET3" t="n">
-        <v>366.6007690429688</v>
+        <v>403.6532287597656</v>
       </c>
       <c r="EU3" t="n">
-        <v>369.4308166503906</v>
+        <v>403.9072570800781</v>
       </c>
       <c r="EV3" t="n">
-        <v>365.5264587402344</v>
+        <v>401.7001647949219</v>
       </c>
       <c r="EW3" t="n">
-        <v>368.7848510742188</v>
+        <v>402.852294921875</v>
       </c>
       <c r="EX3" t="n">
-        <v>367.5276489257812</v>
+        <v>403.8262329101562</v>
       </c>
       <c r="EY3" t="n">
-        <v>362.9019775390625</v>
+        <v>403.6784973144531</v>
       </c>
       <c r="EZ3" t="n">
-        <v>362.2635192871094</v>
+        <v>403.68896484375</v>
       </c>
       <c r="FA3" t="n">
-        <v>367.5403747558594</v>
+        <v>404.5669555664062</v>
       </c>
       <c r="FB3" t="n">
-        <v>369.6969604492188</v>
+        <v>404.27392578125</v>
       </c>
       <c r="FC3" t="n">
-        <v>363.6495056152344</v>
+        <v>406.7547302246094</v>
       </c>
       <c r="FD3" t="n">
-        <v>368.4745483398438</v>
+        <v>408.22216796875</v>
       </c>
       <c r="FE3" t="n">
-        <v>367.8132629394531</v>
+        <v>409.8572387695312</v>
       </c>
       <c r="FF3" t="n">
-        <v>369.5469360351562</v>
+        <v>410.4435729980469</v>
       </c>
       <c r="FG3" t="n">
-        <v>369.237548828125</v>
+        <v>409.5815124511719</v>
       </c>
       <c r="FH3" t="n">
-        <v>367.5896301269531</v>
+        <v>409.09130859375</v>
       </c>
       <c r="FI3" t="n">
-        <v>366.4252624511719</v>
+        <v>410.763427734375</v>
       </c>
       <c r="FJ3" t="n">
-        <v>366.6241455078125</v>
+        <v>409.1053161621094</v>
       </c>
       <c r="FK3" t="n">
-        <v>377.2066955566406</v>
+        <v>404.0450744628906</v>
       </c>
       <c r="FL3" t="n">
-        <v>376.323974609375</v>
+        <v>401.5136108398438</v>
       </c>
       <c r="FM3" t="n">
-        <v>374.1797180175781</v>
+        <v>400.4255981445312</v>
       </c>
       <c r="FN3" t="n">
-        <v>372.6133117675781</v>
+        <v>397.8876342773438</v>
       </c>
       <c r="FO3" t="n">
-        <v>372.7326049804688</v>
+        <v>393.0451354980469</v>
       </c>
       <c r="FP3" t="n">
-        <v>362.6130981445312</v>
+        <v>393.3935852050781</v>
       </c>
       <c r="FQ3" t="n">
-        <v>361.7506103515625</v>
+        <v>392.046142578125</v>
       </c>
       <c r="FR3" t="n">
-        <v>361.2331237792969</v>
+        <v>388.5089111328125</v>
       </c>
       <c r="FS3" t="n">
-        <v>362.1816711425781</v>
+        <v>388.63330078125</v>
       </c>
       <c r="FT3" t="n">
-        <v>362.39599609375</v>
+        <v>373.9577941894531</v>
       </c>
       <c r="FU3" t="n">
-        <v>359.3952026367188</v>
+        <v>378.306884765625</v>
       </c>
       <c r="FV3" t="n">
-        <v>365.5080871582031</v>
+        <v>372.9472045898438</v>
       </c>
       <c r="FW3" t="n">
-        <v>364.8278503417969</v>
+        <v>337.9941101074219</v>
       </c>
       <c r="FX3" t="n">
-        <v>367.4125671386719</v>
+        <v>337.8608703613281</v>
       </c>
       <c r="FY3" t="n">
-        <v>371.299560546875</v>
+        <v>325.4060974121094</v>
       </c>
       <c r="FZ3" t="n">
-        <v>371.017578125</v>
+        <v>316.896484375</v>
       </c>
       <c r="GA3" t="n">
-        <v>372.7210083007812</v>
+        <v>429.8017578125</v>
       </c>
       <c r="GB3" t="n">
-        <v>366.8061828613281</v>
+        <v>429.8357849121094</v>
       </c>
       <c r="GC3" t="n">
-        <v>367.8971557617188</v>
+        <v>434.9288635253906</v>
       </c>
       <c r="GD3" t="n">
-        <v>372.8223876953125</v>
+        <v>334.9737243652344</v>
       </c>
       <c r="GE3" t="n">
-        <v>370.7857055664062</v>
+        <v>342.6774597167969</v>
       </c>
       <c r="GF3" t="n">
-        <v>371.5860290527344</v>
+        <v>344.4132385253906</v>
       </c>
       <c r="GG3" t="n">
-        <v>370.0499267578125</v>
+        <v>345.3514709472656</v>
       </c>
       <c r="GH3" t="n">
-        <v>365.0987854003906</v>
+        <v>348.6133422851562</v>
       </c>
       <c r="GI3" t="n">
-        <v>367.1246643066406</v>
+        <v>352.9294128417969</v>
       </c>
       <c r="GJ3" t="n">
-        <v>369.0041809082031</v>
+        <v>354.8853759765625</v>
       </c>
       <c r="GK3" t="n">
-        <v>362.5999755859375</v>
+        <v>361.0486145019531</v>
       </c>
       <c r="GL3" t="n">
-        <v>362.6313171386719</v>
+        <v>372.6127624511719</v>
       </c>
       <c r="GM3" t="n">
-        <v>363.6812133789062</v>
+        <v>403.9864807128906</v>
       </c>
       <c r="GN3" t="n">
-        <v>360.1669616699219</v>
+        <v>416.3753356933594</v>
       </c>
       <c r="GO3" t="n">
-        <v>360.6982727050781</v>
+        <v>430.3391418457031</v>
       </c>
       <c r="GP3" t="n">
-        <v>361.5477600097656</v>
+        <v>453.0421752929688</v>
       </c>
       <c r="GQ3" t="n">
-        <v>357.5912780761719</v>
+        <v>461.4479675292969</v>
       </c>
       <c r="GR3" t="n">
-        <v>350.5974731445312</v>
+        <v>472.0668640136719</v>
       </c>
       <c r="GS3" t="n">
-        <v>351.3731689453125</v>
+        <v>476.7978210449219</v>
       </c>
       <c r="GT3" t="n">
-        <v>350.6724548339844</v>
+        <v>477.6444702148438</v>
       </c>
       <c r="GU3" t="n">
-        <v>342.382568359375</v>
+        <v>468.0613403320312</v>
       </c>
       <c r="GV3" t="n">
-        <v>347.2666931152344</v>
+        <v>457.0470275878906</v>
       </c>
       <c r="GW3" t="n">
-        <v>340.0918273925781</v>
+        <v>466.8948059082031</v>
       </c>
       <c r="GX3" t="n">
-        <v>341.8255004882812</v>
+        <v>477.9391479492188</v>
       </c>
       <c r="GY3" t="n">
-        <v>333.8869323730469</v>
+        <v>490.7091064453125</v>
       </c>
       <c r="GZ3" t="n">
-        <v>337.1023864746094</v>
+        <v>510.1606750488281</v>
       </c>
       <c r="HA3" t="n">
-        <v>342.1143493652344</v>
+        <v>544.1732177734375</v>
       </c>
       <c r="HB3" t="n">
-        <v>340.1664428710938</v>
+        <v>568.2432861328125</v>
       </c>
       <c r="HC3" t="n">
-        <v>344.2510375976562</v>
+        <v>590.2218017578125</v>
       </c>
       <c r="HD3" t="n">
-        <v>334.1820983886719</v>
+        <v>588.9400634765625</v>
       </c>
       <c r="HE3" t="n">
-        <v>338.9710388183594</v>
+        <v>577.3936157226562</v>
       </c>
       <c r="HF3" t="n">
-        <v>339.2447814941406</v>
+        <v>631.7791748046875</v>
       </c>
       <c r="HG3" t="n">
-        <v>333.6327819824219</v>
+        <v>642.60009765625</v>
       </c>
       <c r="HH3" t="n">
-        <v>335.6546020507812</v>
+        <v>667.50390625</v>
       </c>
       <c r="HI3" t="n">
-        <v>336.251220703125</v>
+        <v>690.4244384765625</v>
       </c>
       <c r="HJ3" t="n">
-        <v>345.7269897460938</v>
+        <v>710.454345703125</v>
       </c>
       <c r="HK3" t="n">
-        <v>342.1410522460938</v>
+        <v>713.5181884765625</v>
       </c>
       <c r="HL3" t="n">
-        <v>355.1887817382812</v>
+        <v>708.4072875976562</v>
       </c>
       <c r="HM3" t="n">
-        <v>361.2636413574219</v>
+        <v>703.5777587890625</v>
       </c>
       <c r="HN3" t="n">
-        <v>364.9400939941406</v>
+        <v>166.6938171386719</v>
       </c>
       <c r="HO3" t="n">
-        <v>370.9464416503906</v>
+        <v>137.2662353515625</v>
       </c>
       <c r="HP3" t="n">
-        <v>373.7347717285156</v>
+        <v>168.5508880615234</v>
       </c>
       <c r="HQ3" t="n">
-        <v>372.7506103515625</v>
+        <v>257.2684326171875</v>
       </c>
       <c r="HR3" t="n">
-        <v>365.9609069824219</v>
+        <v>299.7620849609375</v>
       </c>
       <c r="HS3" t="n">
-        <v>369.4181213378906</v>
+        <v>831.5559692382812</v>
       </c>
       <c r="HT3" t="n">
-        <v>368.6916198730469</v>
+        <v>725.4182739257812</v>
       </c>
       <c r="HU3" t="n">
-        <v>367.6944580078125</v>
+        <v>741.1846923828125</v>
       </c>
       <c r="HV3" t="n">
-        <v>366.1548767089844</v>
+        <v>762.7158813476562</v>
       </c>
       <c r="HW3" t="n">
-        <v>364.5082702636719</v>
+        <v>761.2199096679688</v>
       </c>
       <c r="HX3" t="n">
-        <v>364.2981262207031</v>
+        <v>738.5032958984375</v>
       </c>
       <c r="HY3" t="n">
-        <v>363.2513122558594</v>
+        <v>720.36083984375</v>
       </c>
       <c r="HZ3" t="n">
-        <v>361.1494140625</v>
+        <v>695.3079833984375</v>
       </c>
       <c r="IA3" t="n">
-        <v>360.3471374511719</v>
+        <v>674.0023803710938</v>
       </c>
       <c r="IB3" t="n">
-        <v>359.298583984375</v>
+        <v>655.9530029296875</v>
       </c>
       <c r="IC3" t="n">
-        <v>359.1252746582031</v>
+        <v>641.6444091796875</v>
       </c>
       <c r="ID3" t="n">
-        <v>358.9175109863281</v>
+        <v>632.6317749023438</v>
       </c>
       <c r="IE3" t="n">
-        <v>359.2550048828125</v>
+        <v>627.6055908203125</v>
       </c>
       <c r="IF3" t="n">
-        <v>360.2514343261719</v>
+        <v>621.18408203125</v>
       </c>
       <c r="IG3" t="n">
-        <v>362.1973571777344</v>
+        <v>621.4910888671875</v>
       </c>
       <c r="IH3" t="n">
-        <v>366.2659606933594</v>
+        <v>621.9661254882812</v>
       </c>
       <c r="II3" t="n">
-        <v>362.7290954589844</v>
+        <v>625.2835693359375</v>
       </c>
       <c r="IJ3" t="n">
-        <v>364.6670532226562</v>
+        <v>641.5654907226562</v>
       </c>
       <c r="IK3" t="n">
-        <v>362.6498107910156</v>
+        <v>653.7991943359375</v>
       </c>
       <c r="IL3" t="n">
-        <v>363.5378112792969</v>
+        <v>670.8078002929688</v>
       </c>
       <c r="IM3" t="n">
-        <v>359.8600158691406</v>
+        <v>684.4505004882812</v>
       </c>
       <c r="IN3" t="n">
-        <v>356.9259948730469</v>
+        <v>713.4215087890625</v>
       </c>
       <c r="IO3" t="n">
-        <v>356.4713134765625</v>
+        <v>749.8480834960938</v>
       </c>
       <c r="IP3" t="n">
-        <v>343.0186157226562</v>
+        <v>706.574951171875</v>
       </c>
       <c r="IQ3" t="n">
-        <v>342.3538818359375</v>
+        <v>749.45703125</v>
       </c>
       <c r="IR3" t="n">
-        <v>343.2706298828125</v>
+        <v>294.9530944824219</v>
       </c>
       <c r="IS3" t="n">
-        <v>348.6025085449219</v>
+        <v>305.2796020507812</v>
       </c>
       <c r="IT3" t="n">
-        <v>335.4621276855469</v>
+        <v>312.0905151367188</v>
       </c>
       <c r="IU3" t="n">
-        <v>338.9114990234375</v>
+        <v>310.2096252441406</v>
       </c>
       <c r="IV3" t="n">
-        <v>348.7644958496094</v>
+        <v>306.0167541503906</v>
       </c>
       <c r="IW3" t="n">
-        <v>331.0069885253906</v>
+        <v>308.4768676757812</v>
       </c>
       <c r="IX3" t="n">
-        <v>333.8709106445312</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>333.7349243164062</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>332.1546936035156</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>337.9637756347656</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>340.9247741699219</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>338.9519348144531</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>348.0895690917969</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>359.8229675292969</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>354.7552185058594</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>367.0489807128906</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>373.3424987792969</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>373.9238891601562</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>370.2123107910156</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>370.290771484375</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>371.8172607421875</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>370.0165405273438</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>370.2391662597656</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>371.3427124023438</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>367.9776611328125</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>368.9655151367188</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>368.2969970703125</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>381.298583984375</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>378.7894592285156</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>380.6157531738281</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>370.2009582519531</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>370.1546936035156</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>371.0336303710938</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>371.5726318359375</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>371.6323547363281</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>368.9307861328125</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>369.1211242675781</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>359.8609008789062</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>354.073486328125</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>347.0654296875</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>345.714111328125</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>344.661376953125</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>346.270751953125</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>345.8078308105469</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>347.1369934082031</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>346.9897766113281</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>332.221923828125</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>313.6156921386719</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>291.0509338378906</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>273.6642150878906</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>235.3981170654297</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>228.8381805419922</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>213.2865600585938</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>209.5922088623047</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>205.2434692382812</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>203.6405487060547</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>206.0934143066406</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>208.9247741699219</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>212.5065002441406</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>213.4786834716797</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>227.4075012207031</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>341.2459411621094</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>349.9789733886719</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>359.5060119628906</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>375.8261108398438</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>381.0973205566406</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>371.2799682617188</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>370.9219055175781</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>380.9634094238281</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>385.7821655273438</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>391.1563110351562</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>389.6095275878906</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>390.4601135253906</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>390.5428466796875</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>388.4360046386719</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>388.2500915527344</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>389.6636962890625</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>385.9819030761719</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>390.3916320800781</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>394.4525756835938</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>393.3506469726562</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>390.1112060546875</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>394.6198120117188</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>395.6237487792969</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>390.9153747558594</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>447.0148620605469</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>446.7133483886719</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>452.6633911132812</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>465.0149841308594</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>468.2640075683594</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>462.1670227050781</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>389.9059143066406</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>388.7272033691406</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>405.1083374023438</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>418.8292541503906</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>443.1793518066406</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>433.6417236328125</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>489.0758972167969</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>509.7059936523438</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>534.3797607421875</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>500.6416015625</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>516.6718139648438</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>522.2398681640625</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>524.6810913085938</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>466.1654663085938</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>437.1546936035156</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>381.2560729980469</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>267.6165466308594</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>261.5932006835938</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>241.1531982421875</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>243.9470367431641</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>347.5322875976562</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>517.4501342773438</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>555.2807006835938</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>524.647705078125</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>505.2214050292969</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>491.6592407226562</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>486.2373657226562</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>480.7734375</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>475.3484802246094</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>463.4003295898438</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>436.3699645996094</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>451.3350830078125</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>481.2893981933594</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>493.9055480957031</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>534.2070922851562</v>
+        <v>315.3675842285156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>531.7049560546875</v>
+        <v>921.9677124023438</v>
       </c>
       <c r="B4" t="n">
-        <v>520.8203125</v>
+        <v>955.5379028320312</v>
       </c>
       <c r="C4" t="n">
-        <v>531.616455078125</v>
+        <v>964.7603149414062</v>
       </c>
       <c r="D4" t="n">
-        <v>548.6459350585938</v>
+        <v>987.843994140625</v>
       </c>
       <c r="E4" t="n">
-        <v>573.7112426757812</v>
+        <v>996.2933349609375</v>
       </c>
       <c r="F4" t="n">
-        <v>617.5660400390625</v>
+        <v>1014.216064453125</v>
       </c>
       <c r="G4" t="n">
-        <v>674.3729248046875</v>
+        <v>1026.3251953125</v>
       </c>
       <c r="H4" t="n">
-        <v>730.8992309570312</v>
+        <v>1067.703002929688</v>
       </c>
       <c r="I4" t="n">
-        <v>784.0914306640625</v>
+        <v>1093.209716796875</v>
       </c>
       <c r="J4" t="n">
-        <v>849.48583984375</v>
+        <v>1124.807495117188</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0353393554688</v>
+        <v>1151.772338867188</v>
       </c>
       <c r="L4" t="n">
-        <v>984.7884521484375</v>
+        <v>1186.585205078125</v>
       </c>
       <c r="M4" t="n">
-        <v>1178.58154296875</v>
+        <v>987.4214477539062</v>
       </c>
       <c r="N4" t="n">
-        <v>1173.393188476562</v>
+        <v>1043.701049804688</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.689575195312</v>
+        <v>1294.754638671875</v>
       </c>
       <c r="P4" t="n">
-        <v>1174.739135742188</v>
+        <v>1308.43310546875</v>
       </c>
       <c r="Q4" t="n">
-        <v>1175.83935546875</v>
+        <v>1328.6513671875</v>
       </c>
       <c r="R4" t="n">
-        <v>1186.783569335938</v>
+        <v>1345.939453125</v>
       </c>
       <c r="S4" t="n">
-        <v>1195.823608398438</v>
+        <v>1356.36572265625</v>
       </c>
       <c r="T4" t="n">
-        <v>1194.953125</v>
+        <v>1370.262573242188</v>
       </c>
       <c r="U4" t="n">
-        <v>1210.27685546875</v>
+        <v>1388.151000976562</v>
       </c>
       <c r="V4" t="n">
-        <v>1210.076538085938</v>
+        <v>1404.69775390625</v>
       </c>
       <c r="W4" t="n">
-        <v>1207.264282226562</v>
+        <v>1417.681762695312</v>
       </c>
       <c r="X4" t="n">
-        <v>1199.68408203125</v>
+        <v>1430.8837890625</v>
       </c>
       <c r="Y4" t="n">
-        <v>1190.714477539062</v>
+        <v>1445.294921875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1193.208251953125</v>
+        <v>1460.464599609375</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200.360473632812</v>
+        <v>1482.861328125</v>
       </c>
       <c r="AB4" t="n">
-        <v>1213.819580078125</v>
+        <v>1509.558837890625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1229.680786132812</v>
+        <v>1540.009155273438</v>
       </c>
       <c r="AD4" t="n">
-        <v>1234.265625</v>
+        <v>1561.0419921875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1243.306030273438</v>
+        <v>1583.761840820312</v>
       </c>
       <c r="AF4" t="n">
-        <v>1258.974365234375</v>
+        <v>1610.263427734375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1270.708984375</v>
+        <v>1646.687255859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1308.188842773438</v>
+        <v>1684.102172851562</v>
       </c>
       <c r="AI4" t="n">
-        <v>1328.03125</v>
+        <v>1715.232543945312</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1331.502197265625</v>
+        <v>1741.638061523438</v>
       </c>
       <c r="AK4" t="n">
-        <v>1336.616821289062</v>
+        <v>1764.664428710938</v>
       </c>
       <c r="AL4" t="n">
-        <v>1344.828002929688</v>
+        <v>1784.83642578125</v>
       </c>
       <c r="AM4" t="n">
-        <v>1328.50048828125</v>
+        <v>1810.3662109375</v>
       </c>
       <c r="AN4" t="n">
-        <v>1327.065795898438</v>
+        <v>1824.680541992188</v>
       </c>
       <c r="AO4" t="n">
-        <v>1327.042114257812</v>
+        <v>1846.845947265625</v>
       </c>
       <c r="AP4" t="n">
-        <v>1327.36376953125</v>
+        <v>1880.299438476562</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1323.265380859375</v>
+        <v>1894.36376953125</v>
       </c>
       <c r="AR4" t="n">
-        <v>1317.998901367188</v>
+        <v>1916.592041015625</v>
       </c>
       <c r="AS4" t="n">
-        <v>1318.146240234375</v>
+        <v>1921.163330078125</v>
       </c>
       <c r="AT4" t="n">
-        <v>1316.61328125</v>
+        <v>1924.1337890625</v>
       </c>
       <c r="AU4" t="n">
-        <v>1313.4462890625</v>
+        <v>1923.21533203125</v>
       </c>
       <c r="AV4" t="n">
-        <v>1311.1015625</v>
+        <v>1923.30712890625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1306.853515625</v>
+        <v>1925.894775390625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1300.115356445312</v>
+        <v>1926.980590820312</v>
       </c>
       <c r="AY4" t="n">
-        <v>1298.660888671875</v>
+        <v>1929.969360351562</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1299.971069335938</v>
+        <v>1918.677856445312</v>
       </c>
       <c r="BA4" t="n">
-        <v>1301.835693359375</v>
+        <v>1895.673828125</v>
       </c>
       <c r="BB4" t="n">
-        <v>1305.36474609375</v>
+        <v>1856.07861328125</v>
       </c>
       <c r="BC4" t="n">
-        <v>1301.515380859375</v>
+        <v>2085.561767578125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1301.93701171875</v>
+        <v>2089.860595703125</v>
       </c>
       <c r="BE4" t="n">
-        <v>1300.2568359375</v>
+        <v>2095.32666015625</v>
       </c>
       <c r="BF4" t="n">
-        <v>1307.84375</v>
+        <v>2098.51025390625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1305.320190429688</v>
+        <v>2102.5390625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1299.413940429688</v>
+        <v>2102.379150390625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1271.281616210938</v>
+        <v>2102.171142578125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1249.379516601562</v>
+        <v>2102.72021484375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1226.989135742188</v>
+        <v>2103.19287109375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1206.704345703125</v>
+        <v>2103.0673828125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1189.590087890625</v>
+        <v>2102.993408203125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1174.907836914062</v>
+        <v>2102.97607421875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1139.843872070312</v>
+        <v>2102.8916015625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1128.236694335938</v>
+        <v>2102.86376953125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1114.47900390625</v>
+        <v>2102.79931640625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1106.22998046875</v>
+        <v>2102.729736328125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1094.029541015625</v>
+        <v>2102.66162109375</v>
       </c>
       <c r="BT4" t="n">
-        <v>1084.068115234375</v>
+        <v>2102.580078125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1076.031860351562</v>
+        <v>2102.209228515625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1075.327514648438</v>
+        <v>2101.685546875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1074.645263671875</v>
+        <v>2073.90283203125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1073.82861328125</v>
+        <v>2077.77490234375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1075.204467773438</v>
+        <v>2012.090454101562</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1076.103759765625</v>
+        <v>2033.22412109375</v>
       </c>
       <c r="CA4" t="n">
-        <v>1077.350341796875</v>
+        <v>2026.741455078125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1084.833129882812</v>
+        <v>2027.362548828125</v>
       </c>
       <c r="CC4" t="n">
-        <v>1098.554809570312</v>
+        <v>2047.540649414062</v>
       </c>
       <c r="CD4" t="n">
-        <v>1113.935668945312</v>
+        <v>2033.954833984375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1119.470092773438</v>
+        <v>2042.08544921875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1121.065551757812</v>
+        <v>2008.771728515625</v>
       </c>
       <c r="CG4" t="n">
-        <v>1121.751586914062</v>
+        <v>2006.444458007812</v>
       </c>
       <c r="CH4" t="n">
-        <v>1122.630859375</v>
+        <v>2000.020263671875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1128.950561523438</v>
+        <v>1998.466918945312</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1134.740600585938</v>
+        <v>1994.524780273438</v>
       </c>
       <c r="CK4" t="n">
-        <v>1132.754760742188</v>
+        <v>1986.797119140625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1131.0791015625</v>
+        <v>1981.201904296875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1128.112548828125</v>
+        <v>1976.046142578125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1127.4248046875</v>
+        <v>1984.330322265625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1125.93603515625</v>
+        <v>1985.813110351562</v>
       </c>
       <c r="CP4" t="n">
-        <v>1125.389770507812</v>
+        <v>1984.46875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1125.104858398438</v>
+        <v>1959.349975585938</v>
       </c>
       <c r="CR4" t="n">
-        <v>1125.3408203125</v>
+        <v>1956.267578125</v>
       </c>
       <c r="CS4" t="n">
-        <v>1138.495971679688</v>
+        <v>1966.502685546875</v>
       </c>
       <c r="CT4" t="n">
-        <v>1166.408325195312</v>
+        <v>1968.006958007812</v>
       </c>
       <c r="CU4" t="n">
-        <v>1182.719848632812</v>
+        <v>1970.151123046875</v>
       </c>
       <c r="CV4" t="n">
-        <v>1187.823608398438</v>
+        <v>1962.219848632812</v>
       </c>
       <c r="CW4" t="n">
-        <v>1209.503784179688</v>
+        <v>1966.369018554688</v>
       </c>
       <c r="CX4" t="n">
-        <v>1232.443237304688</v>
+        <v>1963.06787109375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1236.855590820312</v>
+        <v>1955.028442382812</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1241.92333984375</v>
+        <v>1951.441040039062</v>
       </c>
       <c r="DA4" t="n">
-        <v>1240.980590820312</v>
+        <v>1931.525634765625</v>
       </c>
       <c r="DB4" t="n">
-        <v>1242.189086914062</v>
+        <v>1898.571899414062</v>
       </c>
       <c r="DC4" t="n">
-        <v>1244.748046875</v>
+        <v>1906.019165039062</v>
       </c>
       <c r="DD4" t="n">
-        <v>1249.679443359375</v>
+        <v>1891.468383789062</v>
       </c>
       <c r="DE4" t="n">
-        <v>1243.463256835938</v>
+        <v>2092.090087890625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1237.572875976562</v>
+        <v>2080.529052734375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1231.532104492188</v>
+        <v>2080.5908203125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1203.240356445312</v>
+        <v>2080.384521484375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1200.5263671875</v>
+        <v>2079.674560546875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1189.02294921875</v>
+        <v>2079.65576171875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1156.390991210938</v>
+        <v>1903.552368164062</v>
       </c>
       <c r="DL4" t="n">
-        <v>1138.072875976562</v>
+        <v>1919.589111328125</v>
       </c>
       <c r="DM4" t="n">
-        <v>1116.378173828125</v>
+        <v>1906.93310546875</v>
       </c>
       <c r="DN4" t="n">
-        <v>1099.879028320312</v>
+        <v>1868.791625976562</v>
       </c>
       <c r="DO4" t="n">
-        <v>1085.210815429688</v>
+        <v>1843.8037109375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1141.44384765625</v>
+        <v>1841.274047851562</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1129.092895507812</v>
+        <v>1830.169799804688</v>
       </c>
       <c r="DR4" t="n">
-        <v>1107.794555664062</v>
+        <v>1820.466674804688</v>
       </c>
       <c r="DS4" t="n">
-        <v>1079.99365234375</v>
+        <v>1813.28125</v>
       </c>
       <c r="DT4" t="n">
-        <v>1106.227783203125</v>
+        <v>1787.898071289062</v>
       </c>
       <c r="DU4" t="n">
-        <v>1132.66748046875</v>
+        <v>1784.713012695312</v>
       </c>
       <c r="DV4" t="n">
-        <v>1142.5009765625</v>
+        <v>1784.073120117188</v>
       </c>
       <c r="DW4" t="n">
-        <v>1163.760375976562</v>
+        <v>1783.994873046875</v>
       </c>
       <c r="DX4" t="n">
-        <v>1162.48779296875</v>
+        <v>1784.758422851562</v>
       </c>
       <c r="DY4" t="n">
-        <v>1152.024536132812</v>
+        <v>1788.971801757812</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1154.4052734375</v>
+        <v>1799.683959960938</v>
       </c>
       <c r="EA4" t="n">
-        <v>1161.349853515625</v>
+        <v>1828.849243164062</v>
       </c>
       <c r="EB4" t="n">
-        <v>1162.228149414062</v>
+        <v>1875.187133789062</v>
       </c>
       <c r="EC4" t="n">
-        <v>1167.561279296875</v>
+        <v>1901.927734375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1179.517578125</v>
+        <v>1925.815795898438</v>
       </c>
       <c r="EE4" t="n">
-        <v>1215.278686523438</v>
+        <v>1922.87646484375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1240.02197265625</v>
+        <v>1923.668823242188</v>
       </c>
       <c r="EG4" t="n">
-        <v>1295.566284179688</v>
+        <v>1922.925048828125</v>
       </c>
       <c r="EH4" t="n">
-        <v>1312.301391601562</v>
+        <v>1900.960815429688</v>
       </c>
       <c r="EI4" t="n">
-        <v>1332.917724609375</v>
+        <v>1895.517578125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1352.048583984375</v>
+        <v>1872.220092773438</v>
       </c>
       <c r="EK4" t="n">
-        <v>1360.173583984375</v>
+        <v>1869.481567382812</v>
       </c>
       <c r="EL4" t="n">
-        <v>1365.906982421875</v>
+        <v>1859.447143554688</v>
       </c>
       <c r="EM4" t="n">
-        <v>1379.923217773438</v>
+        <v>1852.73681640625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1399.89453125</v>
+        <v>1835.850830078125</v>
       </c>
       <c r="EO4" t="n">
-        <v>1413.92822265625</v>
+        <v>1860.392333984375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1420.9873046875</v>
+        <v>1846.233032226562</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1431.181030273438</v>
+        <v>1814.822021484375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1437.4697265625</v>
+        <v>1813.827270507812</v>
       </c>
       <c r="ES4" t="n">
-        <v>1446.2763671875</v>
+        <v>1815.720336914062</v>
       </c>
       <c r="ET4" t="n">
-        <v>1432.905883789062</v>
+        <v>1814.0537109375</v>
       </c>
       <c r="EU4" t="n">
-        <v>1441.013305664062</v>
+        <v>1813.574340820312</v>
       </c>
       <c r="EV4" t="n">
-        <v>1450.477172851562</v>
+        <v>1819.741333007812</v>
       </c>
       <c r="EW4" t="n">
-        <v>1515.812377929688</v>
+        <v>1816.466674804688</v>
       </c>
       <c r="EX4" t="n">
-        <v>1567.992065429688</v>
+        <v>1799.340209960938</v>
       </c>
       <c r="EY4" t="n">
-        <v>1614.079956054688</v>
+        <v>1794.67822265625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1626.122192382812</v>
+        <v>1784.077514648438</v>
       </c>
       <c r="FA4" t="n">
-        <v>1686.791625976562</v>
+        <v>1773.973754882812</v>
       </c>
       <c r="FB4" t="n">
-        <v>1710.1884765625</v>
+        <v>1759.812377929688</v>
       </c>
       <c r="FC4" t="n">
-        <v>1772.492309570312</v>
+        <v>1743.439208984375</v>
       </c>
       <c r="FD4" t="n">
-        <v>1822.346313476562</v>
+        <v>1698.03369140625</v>
       </c>
       <c r="FE4" t="n">
-        <v>1839.303588867188</v>
+        <v>1674.675048828125</v>
       </c>
       <c r="FF4" t="n">
-        <v>1868.738525390625</v>
+        <v>1649.4853515625</v>
       </c>
       <c r="FG4" t="n">
-        <v>1942.090454101562</v>
+        <v>1631.47509765625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1961.351806640625</v>
+        <v>1583.427856445312</v>
       </c>
       <c r="FI4" t="n">
-        <v>2035.033325195312</v>
+        <v>1555.576904296875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2088.076904296875</v>
+        <v>1508.054077148438</v>
       </c>
       <c r="FK4" t="n">
-        <v>2125.797607421875</v>
+        <v>1461.963256835938</v>
       </c>
       <c r="FL4" t="n">
-        <v>2114.30419921875</v>
+        <v>1438.113647460938</v>
       </c>
       <c r="FM4" t="n">
-        <v>2119.4609375</v>
+        <v>1407.950561523438</v>
       </c>
       <c r="FN4" t="n">
-        <v>2154.904541015625</v>
+        <v>1390.053344726562</v>
       </c>
       <c r="FO4" t="n">
-        <v>2194.331787109375</v>
+        <v>1348.514526367188</v>
       </c>
       <c r="FP4" t="n">
-        <v>2250.042724609375</v>
+        <v>1308.6669921875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2276.12841796875</v>
+        <v>1290.301391601562</v>
       </c>
       <c r="FR4" t="n">
-        <v>2398.549072265625</v>
+        <v>1263.856323242188</v>
       </c>
       <c r="FS4" t="n">
-        <v>2410.718994140625</v>
+        <v>1233.607666015625</v>
       </c>
       <c r="FT4" t="n">
-        <v>2373.98876953125</v>
+        <v>1171.061767578125</v>
       </c>
       <c r="FU4" t="n">
-        <v>2337.595703125</v>
+        <v>1148.596435546875</v>
       </c>
       <c r="FV4" t="n">
-        <v>2381.343505859375</v>
+        <v>1041.943115234375</v>
       </c>
       <c r="FW4" t="n">
-        <v>2298.998779296875</v>
+        <v>1046.066284179688</v>
       </c>
       <c r="FX4" t="n">
-        <v>2309.742431640625</v>
+        <v>1038.809326171875</v>
       </c>
       <c r="FY4" t="n">
-        <v>2354.71630859375</v>
+        <v>1045.94873046875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2293.008544921875</v>
+        <v>1078.40771484375</v>
       </c>
       <c r="GA4" t="n">
-        <v>2291.8876953125</v>
+        <v>1256.404418945312</v>
       </c>
       <c r="GB4" t="n">
-        <v>2216.820068359375</v>
+        <v>1239.619873046875</v>
       </c>
       <c r="GC4" t="n">
-        <v>2230.90869140625</v>
+        <v>1228.206176757812</v>
       </c>
       <c r="GD4" t="n">
-        <v>2269.48193359375</v>
+        <v>1027.65966796875</v>
       </c>
       <c r="GE4" t="n">
-        <v>2240.986572265625</v>
+        <v>999.1422119140625</v>
       </c>
       <c r="GF4" t="n">
-        <v>2260.68017578125</v>
+        <v>987.0234375</v>
       </c>
       <c r="GG4" t="n">
-        <v>2337.175048828125</v>
+        <v>980.9832763671875</v>
       </c>
       <c r="GH4" t="n">
-        <v>2233.99951171875</v>
+        <v>957.281494140625</v>
       </c>
       <c r="GI4" t="n">
-        <v>2244.002197265625</v>
+        <v>930.1234130859375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2306.48876953125</v>
+        <v>918.5289306640625</v>
       </c>
       <c r="GK4" t="n">
-        <v>2227.966064453125</v>
+        <v>879.63916015625</v>
       </c>
       <c r="GL4" t="n">
-        <v>2236.4677734375</v>
+        <v>836.1159057617188</v>
       </c>
       <c r="GM4" t="n">
-        <v>2217.38330078125</v>
+        <v>801.81591796875</v>
       </c>
       <c r="GN4" t="n">
-        <v>2205.304931640625</v>
+        <v>782.5598754882812</v>
       </c>
       <c r="GO4" t="n">
-        <v>2205.4052734375</v>
+        <v>756.498779296875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2174.928955078125</v>
+        <v>742.9527587890625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2132.53369140625</v>
+        <v>732.4954223632812</v>
       </c>
       <c r="GR4" t="n">
-        <v>2133.21484375</v>
+        <v>716.9566040039062</v>
       </c>
       <c r="GS4" t="n">
-        <v>2106.129150390625</v>
+        <v>701.4373168945312</v>
       </c>
       <c r="GT4" t="n">
-        <v>2065.963134765625</v>
+        <v>687.4576416015625</v>
       </c>
       <c r="GU4" t="n">
-        <v>2079.97314453125</v>
+        <v>670.1681518554688</v>
       </c>
       <c r="GV4" t="n">
-        <v>2022.069091796875</v>
+        <v>657.6047973632812</v>
       </c>
       <c r="GW4" t="n">
-        <v>2000.053466796875</v>
+        <v>631.620849609375</v>
       </c>
       <c r="GX4" t="n">
-        <v>2007.490966796875</v>
+        <v>608.4322509765625</v>
       </c>
       <c r="GY4" t="n">
-        <v>2004.628173828125</v>
+        <v>587.5437622070312</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2013.582763671875</v>
+        <v>563.8660278320312</v>
       </c>
       <c r="HA4" t="n">
-        <v>2016.76611328125</v>
+        <v>532.7884521484375</v>
       </c>
       <c r="HB4" t="n">
-        <v>2018.879638671875</v>
+        <v>523.90576171875</v>
       </c>
       <c r="HC4" t="n">
-        <v>1993.2861328125</v>
+        <v>531.2779541015625</v>
       </c>
       <c r="HD4" t="n">
-        <v>2029.411376953125</v>
+        <v>581.9185180664062</v>
       </c>
       <c r="HE4" t="n">
-        <v>1996.330322265625</v>
+        <v>610.8528442382812</v>
       </c>
       <c r="HF4" t="n">
-        <v>1991.8037109375</v>
+        <v>596.8282470703125</v>
       </c>
       <c r="HG4" t="n">
-        <v>1992.393920898438</v>
+        <v>597.51123046875</v>
       </c>
       <c r="HH4" t="n">
-        <v>2053.456787109375</v>
+        <v>601.28515625</v>
       </c>
       <c r="HI4" t="n">
-        <v>2026.867431640625</v>
+        <v>592.2391357421875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2053.1083984375</v>
+        <v>579.4636840820312</v>
       </c>
       <c r="HK4" t="n">
-        <v>2020.665161132812</v>
+        <v>579.4613037109375</v>
       </c>
       <c r="HL4" t="n">
-        <v>2081.846435546875</v>
+        <v>583.6867065429688</v>
       </c>
       <c r="HM4" t="n">
-        <v>2080.205078125</v>
+        <v>586.6622924804688</v>
       </c>
       <c r="HN4" t="n">
-        <v>2086.76806640625</v>
+        <v>511.8302307128906</v>
       </c>
       <c r="HO4" t="n">
-        <v>2201.13037109375</v>
+        <v>555.221923828125</v>
       </c>
       <c r="HP4" t="n">
-        <v>2181.491943359375</v>
+        <v>512.4275512695312</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2181.9248046875</v>
+        <v>401.9446716308594</v>
       </c>
       <c r="HR4" t="n">
-        <v>2069.42724609375</v>
+        <v>340.7023315429688</v>
       </c>
       <c r="HS4" t="n">
-        <v>2099.947265625</v>
+        <v>459.6295776367188</v>
       </c>
       <c r="HT4" t="n">
-        <v>2093.231689453125</v>
+        <v>584.67578125</v>
       </c>
       <c r="HU4" t="n">
-        <v>2068.24072265625</v>
+        <v>582.5680541992188</v>
       </c>
       <c r="HV4" t="n">
-        <v>2059.5625</v>
+        <v>580.0900268554688</v>
       </c>
       <c r="HW4" t="n">
-        <v>2053.66259765625</v>
+        <v>603.4817504882812</v>
       </c>
       <c r="HX4" t="n">
-        <v>2047.843994140625</v>
+        <v>646.450439453125</v>
       </c>
       <c r="HY4" t="n">
-        <v>2041.042236328125</v>
+        <v>683.21044921875</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2021.443969726562</v>
+        <v>718.5591430664062</v>
       </c>
       <c r="IA4" t="n">
-        <v>2004.449462890625</v>
+        <v>761.0401611328125</v>
       </c>
       <c r="IB4" t="n">
-        <v>1993.703002929688</v>
+        <v>797.4705810546875</v>
       </c>
       <c r="IC4" t="n">
-        <v>1993.049438476562</v>
+        <v>828.844970703125</v>
       </c>
       <c r="ID4" t="n">
-        <v>1997.553466796875</v>
+        <v>852.5776977539062</v>
       </c>
       <c r="IE4" t="n">
-        <v>1995.69873046875</v>
+        <v>871.6709594726562</v>
       </c>
       <c r="IF4" t="n">
-        <v>1991.896240234375</v>
+        <v>888.3464965820312</v>
       </c>
       <c r="IG4" t="n">
-        <v>1994.466064453125</v>
+        <v>889.535400390625</v>
       </c>
       <c r="IH4" t="n">
-        <v>2016.831298828125</v>
+        <v>888.0943603515625</v>
       </c>
       <c r="II4" t="n">
-        <v>2021.66796875</v>
+        <v>880.4573974609375</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2050.391845703125</v>
+        <v>844.134765625</v>
       </c>
       <c r="IK4" t="n">
-        <v>2075.430419921875</v>
+        <v>812.5150756835938</v>
       </c>
       <c r="IL4" t="n">
-        <v>2098.248291015625</v>
+        <v>778.6860961914062</v>
       </c>
       <c r="IM4" t="n">
-        <v>2028.79248046875</v>
+        <v>747.6407470703125</v>
       </c>
       <c r="IN4" t="n">
-        <v>2003.416015625</v>
+        <v>649.42138671875</v>
       </c>
       <c r="IO4" t="n">
-        <v>2011.875732421875</v>
+        <v>607.9986572265625</v>
       </c>
       <c r="IP4" t="n">
-        <v>1998.695190429688</v>
+        <v>484.239501953125</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1999.706787109375</v>
+        <v>619.5147705078125</v>
       </c>
       <c r="IR4" t="n">
-        <v>1981.786254882812</v>
+        <v>626.1693725585938</v>
       </c>
       <c r="IS4" t="n">
-        <v>1993.190551757812</v>
+        <v>620.6044921875</v>
       </c>
       <c r="IT4" t="n">
-        <v>2002.92138671875</v>
+        <v>608.9501342773438</v>
       </c>
       <c r="IU4" t="n">
-        <v>2020.224731445312</v>
+        <v>597.96435546875</v>
       </c>
       <c r="IV4" t="n">
-        <v>2027.187255859375</v>
+        <v>601.3995361328125</v>
       </c>
       <c r="IW4" t="n">
-        <v>2011.489624023438</v>
+        <v>612.5770874023438</v>
       </c>
       <c r="IX4" t="n">
-        <v>2011.035400390625</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2019.036499023438</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2013.536499023438</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2043.384643554688</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2035.499389648438</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>1996.366821289062</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>1997.606323242188</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>2031.714965820312</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2008.855834960938</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>2062.600341796875</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>2150.88427734375</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>2140.849853515625</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>2099.053466796875</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>2170.76611328125</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>2123.858154296875</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2037.510375976562</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2045.782470703125</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2118.869140625</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2041.69580078125</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2092.030029296875</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2192.73828125</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2035.173950195312</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>1976.73876953125</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>1994.88232421875</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2028.558471679688</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2023.672607421875</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2029.128662109375</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2026.74169921875</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2028.974365234375</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2040.45947265625</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2114.0986328125</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2082.276611328125</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2230.696044921875</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2187.045166015625</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2212.321044921875</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2221.1572265625</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2211.72802734375</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2203.132568359375</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2174.9921875</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2186.936767578125</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2236.18701171875</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2253.34619140625</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2275.618896484375</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2327.9375</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2328.74365234375</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2373.334716796875</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2354.833984375</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2358.551513671875</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2369.47314453125</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2336.42529296875</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2300.555419921875</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2279.0849609375</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2251.389892578125</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2180.759033203125</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2072.95654296875</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>2226.458984375</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>2189.0009765625</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>2189.3486328125</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>2118.5419921875</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>2061.730712890625</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>1779.909790039062</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>1751.739501953125</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1722.056884765625</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1706.865234375</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1668.7236328125</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1633.051391601562</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1604.175415039062</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1565.66162109375</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1511.353759765625</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1460.376831054688</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1401.4013671875</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1357.59423828125</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1321.0322265625</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>1274.914794921875</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>1223.395385742188</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>1171.041259765625</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>1107.813232421875</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>1040.557861328125</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>967.4827880859375</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>917.5341796875</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>892.537841796875</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>865.9955444335938</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>846.7354736328125</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>836.8984375</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>849.3300170898438</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>974.5621948242188</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>1002.419494628906</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>1036.941528320312</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>1039.652221679688</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>1064.125</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>1120.145263671875</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>1094.614013671875</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>1005.465637207031</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>885.1439208984375</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>911.5281372070312</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>887.1500854492188</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>838.743896484375</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>794.6978759765625</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>641.74072265625</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>598.7896728515625</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>606.733154296875</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>808.3919677734375</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>855.6473388671875</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>910.1611328125</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>867.5069580078125</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>530.4658203125</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>503.3392639160156</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>455.0604553222656</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>455.0960083007812</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>458.828857421875</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>466.37451171875</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>469.3591918945312</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>479.5796813964844</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>491.8187866210938</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>502.5188903808594</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>518.1075439453125</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>513.9652709960938</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>506.4354858398438</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>546.5208129882812</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>475.238037109375</v>
+        <v>682.3826293945312</v>
       </c>
     </row>
   </sheetData>
